--- a/故障リスト.xlsx
+++ b/故障リスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHI\source\repos\MKCC0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68A19D7E-511B-4CE8-A655-18C55F92259D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1116F576-81EB-44EF-9617-B058B9375B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ベースリスト" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="300">
   <si>
     <t>運転室</t>
   </si>
@@ -983,14 +983,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>{</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MASK重1</t>
     <rPh sb="4" eb="5">
       <t>ジュウ</t>
@@ -1072,6 +1064,10 @@
     <rPh sb="5" eb="6">
       <t>ブ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{0,0x0000,L"",L""},</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1523,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="C178" sqref="C178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.35"/>
@@ -6607,9 +6603,7 @@
       <c r="B177" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C177" s="3" t="s">
-        <v>199</v>
-      </c>
+      <c r="C177" s="3"/>
       <c r="D177" s="3" t="s">
         <v>197</v>
       </c>
@@ -6649,9 +6643,7 @@
       <c r="B178" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C178" s="3" t="s">
-        <v>201</v>
-      </c>
+      <c r="C178" s="3"/>
       <c r="D178" s="3" t="s">
         <v>200</v>
       </c>
@@ -8667,7 +8659,7 @@
   <dimension ref="A1:AH290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F258" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D287" sqref="D287"/>
@@ -8749,40 +8741,40 @@
         <v>280</v>
       </c>
       <c r="W1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="X1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z1" t="s">
         <v>289</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>290</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>291</v>
       </c>
-      <c r="AA1" t="s">
-        <v>292</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>293</v>
-      </c>
       <c r="AC1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AD1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF1" t="s">
         <v>289</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>290</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>291</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>292</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.4">
@@ -23615,7 +23607,7 @@
       </c>
       <c r="D176" t="str">
         <f>ベースリスト!B177&amp;ベースリスト!C177</f>
-        <v>電動機冷却ファン用遮断器MCCB０８トリップ/未投入ＤＢ抵抗器冷却ﾌｧﾝ用遮断器MCCB ０７トリップ/未投入</v>
+        <v>電動機冷却ファン用遮断器MCCB０８トリップ/未投入</v>
       </c>
       <c r="E176" s="12" t="str">
         <f>ベースリスト!D177</f>
@@ -23701,7 +23693,7 @@
       </c>
       <c r="D177" t="str">
         <f>ベースリスト!B178&amp;ベースリスト!C178</f>
-        <v>ＤＢ抵抗器冷却ﾌｧﾝ用遮断器MCCB ０７トリップ/未投入ケーブルリール用遮断器MCCB ９０トリップ/未投入</v>
+        <v>ＤＢ抵抗器冷却ﾌｧﾝ用遮断器MCCB ０７トリップ/未投入</v>
       </c>
       <c r="E177" s="12" t="str">
         <f>ベースリスト!D178</f>
@@ -33427,1557 +33419,1553 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F307AE14-93BC-484D-80FF-735E5FB26645}">
-  <dimension ref="A1:A257"/>
+  <dimension ref="A1:A256"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L255" sqref="L255"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B2,0)&amp;",0x"&amp;作業用リスト!C2&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D2&amp;""",L"""&amp;作業用リスト!E2&amp;"""},"</f>
-        <v>{1,0xF800,L"001:運転室非常停止",L"運転室非常停止PBが操作された"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B2,0)&amp;",0x"&amp;作業用リスト!C2&amp;",L"&amp;":"&amp;作業用リスト!D2&amp;""",L"""&amp;作業用リスト!E2&amp;"""},"</f>
+        <v>{1,0xF800,L:運転室非常停止",L"運転室非常停止PBが操作された"},</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B3,0)&amp;",0x"&amp;作業用リスト!C3&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D3&amp;""",L"""&amp;作業用リスト!E3&amp;"""},"</f>
-        <v>{1,0xF800,L"002:脚部非常停止",L"脚部非常停止PBが操作された"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B3,0)&amp;",0x"&amp;作業用リスト!C3&amp;",L"&amp;":"&amp;作業用リスト!D3&amp;""",L"""&amp;作業用リスト!E3&amp;"""},"</f>
+        <v>{1,0xF800,L:脚部非常停止",L"脚部非常停止PBが操作された"},</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B4,0)&amp;",0x"&amp;作業用リスト!C4&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D4&amp;""",L"""&amp;作業用リスト!E4&amp;"""},"</f>
-        <v>{0,0x0000,L"003:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B4,0)&amp;",0x"&amp;作業用リスト!C4&amp;",L"&amp;":"&amp;作業用リスト!D4&amp;""",L"""&amp;作業用リスト!E4&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B5,0)&amp;",0x"&amp;作業用リスト!C5&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D5&amp;""",L"""&amp;作業用リスト!E5&amp;"""},"</f>
-        <v>{0,0x0000,L"004:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B5,0)&amp;",0x"&amp;作業用リスト!C5&amp;",L"&amp;":"&amp;作業用リスト!D5&amp;""",L"""&amp;作業用リスト!E5&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B6,0)&amp;",0x"&amp;作業用リスト!C6&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D6&amp;""",L"""&amp;作業用リスト!E6&amp;"""},"</f>
-        <v>{1,0xF800,L"005:コンバータ1過熱",L"No.1コンバータが過熱を検出した"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B6,0)&amp;",0x"&amp;作業用リスト!C6&amp;",L"&amp;":"&amp;作業用リスト!D6&amp;""",L"""&amp;作業用リスト!E6&amp;"""},"</f>
+        <v>{1,0xF800,L:コンバータ1過熱",L"No.1コンバータが過熱を検出した"},</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B7,0)&amp;",0x"&amp;作業用リスト!C7&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D7&amp;""",L"""&amp;作業用リスト!E7&amp;"""},"</f>
-        <v>{1,0xF800,L"006:コンバータ1ヒューズ断",L"No.1コンバータがヒューズ断を検出した"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B7,0)&amp;",0x"&amp;作業用リスト!C7&amp;",L"&amp;":"&amp;作業用リスト!D7&amp;""",L"""&amp;作業用リスト!E7&amp;"""},"</f>
+        <v>{1,0xF800,L:コンバータ1ヒューズ断",L"No.1コンバータがヒューズ断を検出した"},</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B8,0)&amp;",0x"&amp;作業用リスト!C8&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D8&amp;""",L"""&amp;作業用リスト!E8&amp;"""},"</f>
-        <v>{1,0xF800,L"007:コンバータ2過熱",L"No.2コンバータが過熱を検出した"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B8,0)&amp;",0x"&amp;作業用リスト!C8&amp;",L"&amp;":"&amp;作業用リスト!D8&amp;""",L"""&amp;作業用リスト!E8&amp;"""},"</f>
+        <v>{1,0xF800,L:コンバータ2過熱",L"No.2コンバータが過熱を検出した"},</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B9,0)&amp;",0x"&amp;作業用リスト!C9&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D9&amp;""",L"""&amp;作業用リスト!E9&amp;"""},"</f>
-        <v>{1,0xF800,L"008:コンバータ2ヒューズ断",L"No.2コンバータがヒューズ断を検出した"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B9,0)&amp;",0x"&amp;作業用リスト!C9&amp;",L"&amp;":"&amp;作業用リスト!D9&amp;""",L"""&amp;作業用リスト!E9&amp;"""},"</f>
+        <v>{1,0xF800,L:コンバータ2ヒューズ断",L"No.2コンバータがヒューズ断を検出した"},</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B10,0)&amp;",0x"&amp;作業用リスト!C10&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D10&amp;""",L"""&amp;作業用リスト!E10&amp;"""},"</f>
-        <v>{4,0x0000,L"009:電気品室温度高 ",L"電気室の温度が40℃以上で検出"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B10,0)&amp;",0x"&amp;作業用リスト!C10&amp;",L"&amp;":"&amp;作業用リスト!D10&amp;""",L"""&amp;作業用リスト!E10&amp;"""},"</f>
+        <v>{4,0x0000,L:電気品室温度高 ",L"電気室の温度が40℃以上で検出"},</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B11,0)&amp;",0x"&amp;作業用リスト!C11&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D11&amp;""",L"""&amp;作業用リスト!E11&amp;"""},"</f>
-        <v>{4,0x0000,L"010:風速16m/sec以上",L"16m/sec以上を検出"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B11,0)&amp;",0x"&amp;作業用リスト!C11&amp;",L"&amp;":"&amp;作業用リスト!D11&amp;""",L"""&amp;作業用リスト!E11&amp;"""},"</f>
+        <v>{4,0x0000,L:風速16m/sec以上",L"16m/sec以上を検出"},</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B12,0)&amp;",0x"&amp;作業用リスト!C12&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D12&amp;""",L"""&amp;作業用リスト!E12&amp;"""},"</f>
-        <v>{0,0x0000,L"011:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B12,0)&amp;",0x"&amp;作業用リスト!C12&amp;",L"&amp;":"&amp;作業用リスト!D12&amp;""",L"""&amp;作業用リスト!E12&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B13,0)&amp;",0x"&amp;作業用リスト!C13&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D13&amp;""",L"""&amp;作業用リスト!E13&amp;"""},"</f>
-        <v>{0,0x0000,L"012:運転準備未完",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B13,0)&amp;",0x"&amp;作業用リスト!C13&amp;",L"&amp;":"&amp;作業用リスト!D13&amp;""",L"""&amp;作業用リスト!E13&amp;"""},"</f>
+        <v>{0,0x0000,L:運転準備未完",L""},</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B14,0)&amp;",0x"&amp;作業用リスト!C14&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D14&amp;""",L"""&amp;作業用リスト!E14&amp;"""},"</f>
-        <v>{1,0xF800,L"013:運転準備未完コントローラ操作有",L"主回路MCが順次投入中にコントローラが操作された場合"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B14,0)&amp;",0x"&amp;作業用リスト!C14&amp;",L"&amp;":"&amp;作業用リスト!D14&amp;""",L"""&amp;作業用リスト!E14&amp;"""},"</f>
+        <v>{1,0xF800,L:運転準備未完コントローラ操作有",L"主回路MCが順次投入中にコントローラが操作された場合"},</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B15,0)&amp;",0x"&amp;作業用リスト!C15&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D15&amp;""",L"""&amp;作業用リスト!E15&amp;"""},"</f>
-        <v>{5,0xF800,L"014:コントローラ“０”ノッチインターロック検出",L"コントローラが0ノッチ以外で「主回路・入」PBを操作した"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B15,0)&amp;",0x"&amp;作業用リスト!C15&amp;",L"&amp;":"&amp;作業用リスト!D15&amp;""",L"""&amp;作業用リスト!E15&amp;"""},"</f>
+        <v>{5,0xF800,L:コントローラ“０”ノッチインターロック検出",L"コントローラが0ノッチ以外で「主回路・入」PBを操作した"},</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B16,0)&amp;",0x"&amp;作業用リスト!C16&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D16&amp;""",L"""&amp;作業用リスト!E16&amp;"""},"</f>
-        <v>{0,0x0000,L"015:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B16,0)&amp;",0x"&amp;作業用リスト!C16&amp;",L"&amp;":"&amp;作業用リスト!D16&amp;""",L"""&amp;作業用リスト!E16&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B17,0)&amp;",0x"&amp;作業用リスト!C17&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D17&amp;""",L"""&amp;作業用リスト!E17&amp;"""},"</f>
-        <v>{0,0x0000,L"016:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B17,0)&amp;",0x"&amp;作業用リスト!C17&amp;",L"&amp;":"&amp;作業用リスト!D17&amp;""",L"""&amp;作業用リスト!E17&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B18,0)&amp;",0x"&amp;作業用リスト!C18&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D18&amp;""",L"""&amp;作業用リスト!E18&amp;"""},"</f>
-        <v>{0,0x0000,L"017:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B18,0)&amp;",0x"&amp;作業用リスト!C18&amp;",L"&amp;":"&amp;作業用リスト!D18&amp;""",L"""&amp;作業用リスト!E18&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B19,0)&amp;",0x"&amp;作業用リスト!C19&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D19&amp;""",L"""&amp;作業用リスト!E19&amp;"""},"</f>
-        <v>{0,0x0000,L"018:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B19,0)&amp;",0x"&amp;作業用リスト!C19&amp;",L"&amp;":"&amp;作業用リスト!D19&amp;""",L"""&amp;作業用リスト!E19&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B20,0)&amp;",0x"&amp;作業用リスト!C20&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D20&amp;""",L"""&amp;作業用リスト!E20&amp;"""},"</f>
-        <v>{1,0xF800,L"019:主回路電源電源断",L"高圧側電源が確立していない場合に検出"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B20,0)&amp;",0x"&amp;作業用リスト!C20&amp;",L"&amp;":"&amp;作業用リスト!D20&amp;""",L"""&amp;作業用リスト!E20&amp;"""},"</f>
+        <v>{1,0xF800,L:主回路電源電源断",L"高圧側電源が確立していない場合に検出"},</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B21,0)&amp;",0x"&amp;作業用リスト!C21&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D21&amp;""",L"""&amp;作業用リスト!E21&amp;"""},"</f>
-        <v>{5,0xF800,L"020:主回路電源未投入",L"主幹が未投入時に高圧側電源ＯＦＦで検出"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B21,0)&amp;",0x"&amp;作業用リスト!C21&amp;",L"&amp;":"&amp;作業用リスト!D21&amp;""",L"""&amp;作業用リスト!E21&amp;"""},"</f>
+        <v>{5,0xF800,L:主回路電源未投入",L"主幹が未投入時に高圧側電源ＯＦＦで検出"},</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B22,0)&amp;",0x"&amp;作業用リスト!C22&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D22&amp;""",L"""&amp;作業用リスト!E22&amp;"""},"</f>
-        <v>{1,0xF800,L"021:電気室 PLC故障（表示は出来ません）",L"ＰＬＣ故障が発生した。"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B22,0)&amp;",0x"&amp;作業用リスト!C22&amp;",L"&amp;":"&amp;作業用リスト!D22&amp;""",L"""&amp;作業用リスト!E22&amp;"""},"</f>
+        <v>{1,0xF800,L:電気室 PLC故障（表示は出来ません）",L"ＰＬＣ故障が発生した。"},</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B23,0)&amp;",0x"&amp;作業用リスト!C23&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D23&amp;""",L"""&amp;作業用リスト!E23&amp;"""},"</f>
-        <v>{1,0xF800,L"022:PLCリンク異常",L"ＰＬＣのリンクエラーが発生した。"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B23,0)&amp;",0x"&amp;作業用リスト!C23&amp;",L"&amp;":"&amp;作業用リスト!D23&amp;""",L"""&amp;作業用リスト!E23&amp;"""},"</f>
+        <v>{1,0xF800,L:PLCリンク異常",L"ＰＬＣのリンクエラーが発生した。"},</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B24,0)&amp;",0x"&amp;作業用リスト!C24&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D24&amp;""",L"""&amp;作業用リスト!E24&amp;"""},"</f>
-        <v>{4,0x0000,L"023:電気室 PLCバッテリ低下",L"ＰＬＣバッテリ低下が発生した。"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B24,0)&amp;",0x"&amp;作業用リスト!C24&amp;",L"&amp;":"&amp;作業用リスト!D24&amp;""",L"""&amp;作業用リスト!E24&amp;"""},"</f>
+        <v>{4,0x0000,L:電気室 PLCバッテリ低下",L"ＰＬＣバッテリ低下が発生した。"},</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B25,0)&amp;",0x"&amp;作業用リスト!C25&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D25&amp;""",L"""&amp;作業用リスト!E25&amp;"""},"</f>
-        <v>{0,0x0000,L"024:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B25,0)&amp;",0x"&amp;作業用リスト!C25&amp;",L"&amp;":"&amp;作業用リスト!D25&amp;""",L"""&amp;作業用リスト!E25&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B26,0)&amp;",0x"&amp;作業用リスト!C26&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D26&amp;""",L"""&amp;作業用リスト!E26&amp;"""},"</f>
-        <v>{0,0x0000,L"025:運転室PLC故障",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B26,0)&amp;",0x"&amp;作業用リスト!C26&amp;",L"&amp;":"&amp;作業用リスト!D26&amp;""",L"""&amp;作業用リスト!E26&amp;"""},"</f>
+        <v>{0,0x0000,L:運転室PLC故障",L""},</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B27,0)&amp;",0x"&amp;作業用リスト!C27&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D27&amp;""",L"""&amp;作業用リスト!E27&amp;"""},"</f>
-        <v>{1,0xF800,L"026:運転室PLC故障（リンク異常となり表示は出来ません）",L"PLCが故障した"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B27,0)&amp;",0x"&amp;作業用リスト!C27&amp;",L"&amp;":"&amp;作業用リスト!D27&amp;""",L"""&amp;作業用リスト!E27&amp;"""},"</f>
+        <v>{1,0xF800,L:運転室PLC故障（リンク異常となり表示は出来ません）",L"PLCが故障した"},</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B28,0)&amp;",0x"&amp;作業用リスト!C28&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D28&amp;""",L"""&amp;作業用リスト!E28&amp;"""},"</f>
-        <v>{4,0x0000,L"027:運転室 PLCバッテリー低下",L"PLCバッテリ低下が発生した"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B28,0)&amp;",0x"&amp;作業用リスト!C28&amp;",L"&amp;":"&amp;作業用リスト!D28&amp;""",L"""&amp;作業用リスト!E28&amp;"""},"</f>
+        <v>{4,0x0000,L:運転室 PLCバッテリー低下",L"PLCバッテリ低下が発生した"},</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B29,0)&amp;",0x"&amp;作業用リスト!C29&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D29&amp;""",L"""&amp;作業用リスト!E29&amp;"""},"</f>
-        <v>{4,0x0000,L"028:PLC正ループ異常",L"PLCの正ループリンクエラーが発生した。"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B29,0)&amp;",0x"&amp;作業用リスト!C29&amp;",L"&amp;":"&amp;作業用リスト!D29&amp;""",L"""&amp;作業用リスト!E29&amp;"""},"</f>
+        <v>{4,0x0000,L:PLC正ループ異常",L"PLCの正ループリンクエラーが発生した。"},</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B30,0)&amp;",0x"&amp;作業用リスト!C30&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D30&amp;""",L"""&amp;作業用リスト!E30&amp;"""},"</f>
-        <v>{4,0x0000,L"029:PLC副ループ異常",L"PLCの副ループリンクエラーが発生した。"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B30,0)&amp;",0x"&amp;作業用リスト!C30&amp;",L"&amp;":"&amp;作業用リスト!D30&amp;""",L"""&amp;作業用リスト!E30&amp;"""},"</f>
+        <v>{4,0x0000,L:PLC副ループ異常",L"PLCの副ループリンクエラーが発生した。"},</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B31,0)&amp;",0x"&amp;作業用リスト!C31&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D31&amp;""",L"""&amp;作業用リスト!E31&amp;"""},"</f>
-        <v>{0,0x0000,L"030:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B31,0)&amp;",0x"&amp;作業用リスト!C31&amp;",L"&amp;":"&amp;作業用リスト!D31&amp;""",L"""&amp;作業用リスト!E31&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B32,0)&amp;",0x"&amp;作業用リスト!C32&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D32&amp;""",L"""&amp;作業用リスト!E32&amp;"""},"</f>
-        <v>{2,0x4000,L"031:巻上高巻1範囲非常上限",L"巻上高巻1範囲非常上限LSが作動"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B32,0)&amp;",0x"&amp;作業用リスト!C32&amp;",L"&amp;":"&amp;作業用リスト!D32&amp;""",L"""&amp;作業用リスト!E32&amp;"""},"</f>
+        <v>{2,0x4000,L:巻上高巻1範囲非常上限",L"巻上高巻1範囲非常上限LSが作動"},</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B33,0)&amp;",0x"&amp;作業用リスト!C33&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D33&amp;""",L"""&amp;作業用リスト!E33&amp;"""},"</f>
-        <v>{5,0x0040,L"032:巻上高巻1範囲常用上限",L"巻上高巻1範囲常用上限を検出"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B33,0)&amp;",0x"&amp;作業用リスト!C33&amp;",L"&amp;":"&amp;作業用リスト!D33&amp;""",L"""&amp;作業用リスト!E33&amp;"""},"</f>
+        <v>{5,0x0040,L:巻上高巻1範囲常用上限",L"巻上高巻1範囲常用上限を検出"},</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B34,0)&amp;",0x"&amp;作業用リスト!C34&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D34&amp;""",L"""&amp;作業用リスト!E34&amp;"""},"</f>
-        <v>{0,0x0000,L"033:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B34,0)&amp;",0x"&amp;作業用リスト!C34&amp;",L"&amp;":"&amp;作業用リスト!D34&amp;""",L"""&amp;作業用リスト!E34&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B35,0)&amp;",0x"&amp;作業用リスト!C35&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D35&amp;""",L"""&amp;作業用リスト!E35&amp;"""},"</f>
-        <v>{0,0x0000,L"034:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B35,0)&amp;",0x"&amp;作業用リスト!C35&amp;",L"&amp;":"&amp;作業用リスト!D35&amp;""",L"""&amp;作業用リスト!E35&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B36,0)&amp;",0x"&amp;作業用リスト!C36&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D36&amp;""",L"""&amp;作業用リスト!E36&amp;"""},"</f>
-        <v>{0,0x0000,L"035:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B36,0)&amp;",0x"&amp;作業用リスト!C36&amp;",L"&amp;":"&amp;作業用リスト!D36&amp;""",L"""&amp;作業用リスト!E36&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B37,0)&amp;",0x"&amp;作業用リスト!C37&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D37&amp;""",L"""&amp;作業用リスト!E37&amp;"""},"</f>
-        <v>{0,0x0000,L"036:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B37,0)&amp;",0x"&amp;作業用リスト!C37&amp;",L"&amp;":"&amp;作業用リスト!D37&amp;""",L"""&amp;作業用リスト!E37&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B38,0)&amp;",0x"&amp;作業用リスト!C38&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D38&amp;""",L"""&amp;作業用リスト!E38&amp;"""},"</f>
-        <v>{2,0x4000,L"037:巻上常用範囲非常上限",L"巻上常用範囲非常上限LSが作動"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B38,0)&amp;",0x"&amp;作業用リスト!C38&amp;",L"&amp;":"&amp;作業用リスト!D38&amp;""",L"""&amp;作業用リスト!E38&amp;"""},"</f>
+        <v>{2,0x4000,L:巻上常用範囲非常上限",L"巻上常用範囲非常上限LSが作動"},</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B39,0)&amp;",0x"&amp;作業用リスト!C39&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D39&amp;""",L"""&amp;作業用リスト!E39&amp;"""},"</f>
-        <v>{5,0x0040,L"038:巻上常用範囲常用上限",L"巻上常用範囲常用上限を検出"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B39,0)&amp;",0x"&amp;作業用リスト!C39&amp;",L"&amp;":"&amp;作業用リスト!D39&amp;""",L"""&amp;作業用リスト!E39&amp;"""},"</f>
+        <v>{5,0x0040,L:巻上常用範囲常用上限",L"巻上常用範囲常用上限を検出"},</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B40,0)&amp;",0x"&amp;作業用リスト!C40&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D40&amp;""",L"""&amp;作業用リスト!E40&amp;"""},"</f>
-        <v>{2,0x4000,L"039:巻上ジブ伏範囲非常上限",L"巻上ジブ伏範囲非常上限ＬＳが作動"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B40,0)&amp;",0x"&amp;作業用リスト!C40&amp;",L"&amp;":"&amp;作業用リスト!D40&amp;""",L"""&amp;作業用リスト!E40&amp;"""},"</f>
+        <v>{2,0x4000,L:巻上ジブ伏範囲非常上限",L"巻上ジブ伏範囲非常上限ＬＳが作動"},</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B41,0)&amp;",0x"&amp;作業用リスト!C41&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D41&amp;""",L"""&amp;作業用リスト!E41&amp;"""},"</f>
-        <v>{5,0x0040,L"040:巻上ジブ伏範囲常用上限",L"巻上ジブ伏範囲上限を検出"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B41,0)&amp;",0x"&amp;作業用リスト!C41&amp;",L"&amp;":"&amp;作業用リスト!D41&amp;""",L"""&amp;作業用リスト!E41&amp;"""},"</f>
+        <v>{5,0x0040,L:巻上ジブ伏範囲常用上限",L"巻上ジブ伏範囲上限を検出"},</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B42,0)&amp;",0x"&amp;作業用リスト!C42&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D42&amp;""",L"""&amp;作業用リスト!E42&amp;"""},"</f>
-        <v>{5,0x0040,L"041:巻上常用下限",L"巻上常用下限に到達した"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B42,0)&amp;",0x"&amp;作業用リスト!C42&amp;",L"&amp;":"&amp;作業用リスト!D42&amp;""",L"""&amp;作業用リスト!E42&amp;"""},"</f>
+        <v>{5,0x0040,L:巻上常用下限",L"巻上常用下限に到達した"},</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B43,0)&amp;",0x"&amp;作業用リスト!C43&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D43&amp;""",L"""&amp;作業用リスト!E43&amp;"""},"</f>
-        <v>{2,0x4000,L"042:巻上非常下限",L"巻上非常下限LSが作動"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B43,0)&amp;",0x"&amp;作業用リスト!C43&amp;",L"&amp;":"&amp;作業用リスト!D43&amp;""",L"""&amp;作業用リスト!E43&amp;"""},"</f>
+        <v>{2,0x4000,L:巻上非常下限",L"巻上非常下限LSが作動"},</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B44,0)&amp;",0x"&amp;作業用リスト!C44&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D44&amp;""",L"""&amp;作業用リスト!E44&amp;"""},"</f>
-        <v>{1,0xF800,L"043:№1巻上インバータ故障",L"№1巻上インバータが正常でない"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B44,0)&amp;",0x"&amp;作業用リスト!C44&amp;",L"&amp;":"&amp;作業用リスト!D44&amp;""",L"""&amp;作業用リスト!E44&amp;"""},"</f>
+        <v>{1,0xF800,L:№1巻上インバータ故障",L"№1巻上インバータが正常でない"},</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B45,0)&amp;",0x"&amp;作業用リスト!C45&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D45&amp;""",L"""&amp;作業用リスト!E45&amp;"""},"</f>
-        <v>{1,0xF800,L"044:№2巻上インバータ故障",L"№2巻上インバータが正常でない"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B45,0)&amp;",0x"&amp;作業用リスト!C45&amp;",L"&amp;":"&amp;作業用リスト!D45&amp;""",L"""&amp;作業用リスト!E45&amp;"""},"</f>
+        <v>{1,0xF800,L:№2巻上インバータ故障",L"№2巻上インバータが正常でない"},</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B46,0)&amp;",0x"&amp;作業用リスト!C46&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D46&amp;""",L"""&amp;作業用リスト!E46&amp;"""},"</f>
-        <v>{0,0x0000,L"045:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B46,0)&amp;",0x"&amp;作業用リスト!C46&amp;",L"&amp;":"&amp;作業用リスト!D46&amp;""",L"""&amp;作業用リスト!E46&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B47,0)&amp;",0x"&amp;作業用リスト!C47&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D47&amp;""",L"""&amp;作業用リスト!E47&amp;"""},"</f>
-        <v>{0,0x0000,L"046:巻上過速度",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B47,0)&amp;",0x"&amp;作業用リスト!C47&amp;",L"&amp;":"&amp;作業用リスト!D47&amp;""",L"""&amp;作業用リスト!E47&amp;"""},"</f>
+        <v>{0,0x0000,L:巻上過速度",L""},</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B48,0)&amp;",0x"&amp;作業用リスト!C48&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D48&amp;""",L"""&amp;作業用リスト!E48&amp;"""},"</f>
-        <v>{2,0x4000,L"047:巻上過速度巻上PG",L"巻上速度が規定値を超えた（PGにて検出）"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B48,0)&amp;",0x"&amp;作業用リスト!C48&amp;",L"&amp;":"&amp;作業用リスト!D48&amp;""",L"""&amp;作業用リスト!E48&amp;"""},"</f>
+        <v>{2,0x4000,L:巻上過速度巻上PG",L"巻上速度が規定値を超えた（PGにて検出）"},</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B49,0)&amp;",0x"&amp;作業用リスト!C49&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D49&amp;""",L"""&amp;作業用リスト!E49&amp;"""},"</f>
-        <v>{2,0x4000,L"048:巻上PG動作不良",L"巻上運転中PGカウント値に変化がない"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B49,0)&amp;",0x"&amp;作業用リスト!C49&amp;",L"&amp;":"&amp;作業用リスト!D49&amp;""",L"""&amp;作業用リスト!E49&amp;"""},"</f>
+        <v>{2,0x4000,L:巻上PG動作不良",L"巻上運転中PGカウント値に変化がない"},</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B50,0)&amp;",0x"&amp;作業用リスト!C50&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D50&amp;""",L"""&amp;作業用リスト!E50&amp;"""},"</f>
-        <v>{4,0x0000,L"049:巻上モータ冷却ファン過負荷",L"巻上冷却ファンサーマルトリップ"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B50,0)&amp;",0x"&amp;作業用リスト!C50&amp;",L"&amp;":"&amp;作業用リスト!D50&amp;""",L"""&amp;作業用リスト!E50&amp;"""},"</f>
+        <v>{4,0x0000,L:巻上モータ冷却ファン過負荷",L"巻上冷却ファンサーマルトリップ"},</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B51,0)&amp;",0x"&amp;作業用リスト!C51&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D51&amp;""",L"""&amp;作業用リスト!E51&amp;"""},"</f>
-        <v>{2,0x4000,L"050:巻上ブレーキ過負荷",L"巻上ディスクブレーキサーマルトリップ"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B51,0)&amp;",0x"&amp;作業用リスト!C51&amp;",L"&amp;":"&amp;作業用リスト!D51&amp;""",L"""&amp;作業用リスト!E51&amp;"""},"</f>
+        <v>{2,0x4000,L:巻上ブレーキ過負荷",L"巻上ディスクブレーキサーマルトリップ"},</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B52,0)&amp;",0x"&amp;作業用リスト!C52&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D52&amp;""",L"""&amp;作業用リスト!E52&amp;"""},"</f>
-        <v>{0,0x0000,L"051:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B52,0)&amp;",0x"&amp;作業用リスト!C52&amp;",L"&amp;":"&amp;作業用リスト!D52&amp;""",L"""&amp;作業用リスト!E52&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B53,0)&amp;",0x"&amp;作業用リスト!C53&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D53&amp;""",L"""&amp;作業用リスト!E53&amp;"""},"</f>
-        <v>{0,0x0000,L"052:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B53,0)&amp;",0x"&amp;作業用リスト!C53&amp;",L"&amp;":"&amp;作業用リスト!D53&amp;""",L"""&amp;作業用リスト!E53&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A54" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B54,0)&amp;",0x"&amp;作業用リスト!C54&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D54&amp;""",L"""&amp;作業用リスト!E54&amp;"""},"</f>
-        <v>{0,0x0000,L"053:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B54,0)&amp;",0x"&amp;作業用リスト!C54&amp;",L"&amp;":"&amp;作業用リスト!D54&amp;""",L"""&amp;作業用リスト!E54&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B55,0)&amp;",0x"&amp;作業用リスト!C55&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D55&amp;""",L"""&amp;作業用リスト!E55&amp;"""},"</f>
-        <v>{3,0x0040,L"054:アブソコーダ異常",L"①巻上用アブソコーダに異常が発生した場合"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B55,0)&amp;",0x"&amp;作業用リスト!C55&amp;",L"&amp;":"&amp;作業用リスト!D55&amp;""",L"""&amp;作業用リスト!E55&amp;"""},"</f>
+        <v>{3,0x0040,L:アブソコーダ異常",L"①巻上用アブソコーダに異常が発生した場合"},</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B56,0)&amp;",0x"&amp;作業用リスト!C56&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D56&amp;""",L"""&amp;作業用リスト!E56&amp;"""},"</f>
-        <v>{0,0x0000,L"055:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B56,0)&amp;",0x"&amp;作業用リスト!C56&amp;",L"&amp;":"&amp;作業用リスト!D56&amp;""",L"""&amp;作業用リスト!E56&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B57,0)&amp;",0x"&amp;作業用リスト!C57&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D57&amp;""",L"""&amp;作業用リスト!E57&amp;"""},"</f>
-        <v>{5,0x0040,L"056:巻上操作モード切替エラー",L"巻上運転中に巻上速度切替スイッチを操作した。"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B57,0)&amp;",0x"&amp;作業用リスト!C57&amp;",L"&amp;":"&amp;作業用リスト!D57&amp;""",L"""&amp;作業用リスト!E57&amp;"""},"</f>
+        <v>{5,0x0040,L:巻上操作モード切替エラー",L"巻上運転中に巻上速度切替スイッチを操作した。"},</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B58,0)&amp;",0x"&amp;作業用リスト!C58&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D58&amp;""",L"""&amp;作業用リスト!E58&amp;"""},"</f>
-        <v>{0,0x0000,L"057:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B58,0)&amp;",0x"&amp;作業用リスト!C58&amp;",L"&amp;":"&amp;作業用リスト!D58&amp;""",L"""&amp;作業用リスト!E58&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A59" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B59,0)&amp;",0x"&amp;作業用リスト!C59&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D59&amp;""",L"""&amp;作業用リスト!E59&amp;"""},"</f>
-        <v>{0,0x0000,L"058:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B59,0)&amp;",0x"&amp;作業用リスト!C59&amp;",L"&amp;":"&amp;作業用リスト!D59&amp;""",L"""&amp;作業用リスト!E59&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B60,0)&amp;",0x"&amp;作業用リスト!C60&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D60&amp;""",L"""&amp;作業用リスト!E60&amp;"""},"</f>
-        <v>{0,0x0000,L"059:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B60,0)&amp;",0x"&amp;作業用リスト!C60&amp;",L"&amp;":"&amp;作業用リスト!D60&amp;""",L"""&amp;作業用リスト!E60&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A61" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B61,0)&amp;",0x"&amp;作業用リスト!C61&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D61&amp;""",L"""&amp;作業用リスト!E61&amp;"""},"</f>
-        <v>{0,0x0000,L"060:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B61,0)&amp;",0x"&amp;作業用リスト!C61&amp;",L"&amp;":"&amp;作業用リスト!D61&amp;""",L"""&amp;作業用リスト!E61&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B62,0)&amp;",0x"&amp;作業用リスト!C62&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D62&amp;""",L"""&amp;作業用リスト!E62&amp;"""},"</f>
-        <v>{0,0x0000,L"061:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B62,0)&amp;",0x"&amp;作業用リスト!C62&amp;",L"&amp;":"&amp;作業用リスト!D62&amp;""",L"""&amp;作業用リスト!E62&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B63,0)&amp;",0x"&amp;作業用リスト!C63&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D63&amp;""",L"""&amp;作業用リスト!E63&amp;"""},"</f>
-        <v>{0,0x0000,L"062:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B63,0)&amp;",0x"&amp;作業用リスト!C63&amp;",L"&amp;":"&amp;作業用リスト!D63&amp;""",L"""&amp;作業用リスト!E63&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B64,0)&amp;",0x"&amp;作業用リスト!C64&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D64&amp;""",L"""&amp;作業用リスト!E64&amp;"""},"</f>
-        <v>{0,0x0000,L"063:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B64,0)&amp;",0x"&amp;作業用リスト!C64&amp;",L"&amp;":"&amp;作業用リスト!D64&amp;""",L"""&amp;作業用リスト!E64&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A65" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B65,0)&amp;",0x"&amp;作業用リスト!C65&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D65&amp;""",L"""&amp;作業用リスト!E65&amp;"""},"</f>
-        <v>{0,0x0000,L"064:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B65,0)&amp;",0x"&amp;作業用リスト!C65&amp;",L"&amp;":"&amp;作業用リスト!D65&amp;""",L"""&amp;作業用リスト!E65&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B66,0)&amp;",0x"&amp;作業用リスト!C66&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D66&amp;""",L"""&amp;作業用リスト!E66&amp;"""},"</f>
-        <v>{0,0x0000,L"065:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B66,0)&amp;",0x"&amp;作業用リスト!C66&amp;",L"&amp;":"&amp;作業用リスト!D66&amp;""",L"""&amp;作業用リスト!E66&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B67,0)&amp;",0x"&amp;作業用リスト!C67&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D67&amp;""",L"""&amp;作業用リスト!E67&amp;"""},"</f>
-        <v>{0,0x0000,L"066:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B67,0)&amp;",0x"&amp;作業用リスト!C67&amp;",L"&amp;":"&amp;作業用リスト!D67&amp;""",L"""&amp;作業用リスト!E67&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A68" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B68,0)&amp;",0x"&amp;作業用リスト!C68&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D68&amp;""",L"""&amp;作業用リスト!E68&amp;"""},"</f>
-        <v>{0,0x0000,L"067:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B68,0)&amp;",0x"&amp;作業用リスト!C68&amp;",L"&amp;":"&amp;作業用リスト!D68&amp;""",L"""&amp;作業用リスト!E68&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A69" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B69,0)&amp;",0x"&amp;作業用リスト!C69&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D69&amp;""",L"""&amp;作業用リスト!E69&amp;"""},"</f>
-        <v>{0,0x0000,L"068:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B69,0)&amp;",0x"&amp;作業用リスト!C69&amp;",L"&amp;":"&amp;作業用リスト!D69&amp;""",L"""&amp;作業用リスト!E69&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A70" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B70,0)&amp;",0x"&amp;作業用リスト!C70&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D70&amp;""",L"""&amp;作業用リスト!E70&amp;"""},"</f>
-        <v>{0,0x0000,L"069:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B70,0)&amp;",0x"&amp;作業用リスト!C70&amp;",L"&amp;":"&amp;作業用リスト!D70&amp;""",L"""&amp;作業用リスト!E70&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A71" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B71,0)&amp;",0x"&amp;作業用リスト!C71&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D71&amp;""",L"""&amp;作業用リスト!E71&amp;"""},"</f>
-        <v>{0,0x0000,L"070:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B71,0)&amp;",0x"&amp;作業用リスト!C71&amp;",L"&amp;":"&amp;作業用リスト!D71&amp;""",L"""&amp;作業用リスト!E71&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A72" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B72,0)&amp;",0x"&amp;作業用リスト!C72&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D72&amp;""",L"""&amp;作業用リスト!E72&amp;"""},"</f>
-        <v>{0,0x0000,L"071:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B72,0)&amp;",0x"&amp;作業用リスト!C72&amp;",L"&amp;":"&amp;作業用リスト!D72&amp;""",L"""&amp;作業用リスト!E72&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A73" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B73,0)&amp;",0x"&amp;作業用リスト!C73&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D73&amp;""",L"""&amp;作業用リスト!E73&amp;"""},"</f>
-        <v>{0,0x0000,L"072:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B73,0)&amp;",0x"&amp;作業用リスト!C73&amp;",L"&amp;":"&amp;作業用リスト!D73&amp;""",L"""&amp;作業用リスト!E73&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A74" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B74,0)&amp;",0x"&amp;作業用リスト!C74&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D74&amp;""",L"""&amp;作業用リスト!E74&amp;"""},"</f>
-        <v>{0,0x0000,L"073:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B74,0)&amp;",0x"&amp;作業用リスト!C74&amp;",L"&amp;":"&amp;作業用リスト!D74&amp;""",L"""&amp;作業用リスト!E74&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A75" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B75,0)&amp;",0x"&amp;作業用リスト!C75&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D75&amp;""",L"""&amp;作業用リスト!E75&amp;"""},"</f>
-        <v>{0,0x0000,L"074:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B75,0)&amp;",0x"&amp;作業用リスト!C75&amp;",L"&amp;":"&amp;作業用リスト!D75&amp;""",L"""&amp;作業用リスト!E75&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A76" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B76,0)&amp;",0x"&amp;作業用リスト!C76&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D76&amp;""",L"""&amp;作業用リスト!E76&amp;"""},"</f>
-        <v>{0,0x0000,L"075:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B76,0)&amp;",0x"&amp;作業用リスト!C76&amp;",L"&amp;":"&amp;作業用リスト!D76&amp;""",L"""&amp;作業用リスト!E76&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A77" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B77,0)&amp;",0x"&amp;作業用リスト!C77&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D77&amp;""",L"""&amp;作業用リスト!E77&amp;"""},"</f>
-        <v>{0,0x0000,L"076:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B77,0)&amp;",0x"&amp;作業用リスト!C77&amp;",L"&amp;":"&amp;作業用リスト!D77&amp;""",L"""&amp;作業用リスト!E77&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A78" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B78,0)&amp;",0x"&amp;作業用リスト!C78&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D78&amp;""",L"""&amp;作業用リスト!E78&amp;"""},"</f>
-        <v>{0,0x0000,L"077:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B78,0)&amp;",0x"&amp;作業用リスト!C78&amp;",L"&amp;":"&amp;作業用リスト!D78&amp;""",L"""&amp;作業用リスト!E78&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B79,0)&amp;",0x"&amp;作業用リスト!C79&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D79&amp;""",L"""&amp;作業用リスト!E79&amp;"""},"</f>
-        <v>{0,0x0000,L"078:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B79,0)&amp;",0x"&amp;作業用リスト!C79&amp;",L"&amp;":"&amp;作業用リスト!D79&amp;""",L"""&amp;作業用リスト!E79&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A80" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B80,0)&amp;",0x"&amp;作業用リスト!C80&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D80&amp;""",L"""&amp;作業用リスト!E80&amp;"""},"</f>
-        <v>{0,0x0000,L"079:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B80,0)&amp;",0x"&amp;作業用リスト!C80&amp;",L"&amp;":"&amp;作業用リスト!D80&amp;""",L"""&amp;作業用リスト!E80&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A81" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B81,0)&amp;",0x"&amp;作業用リスト!C81&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D81&amp;""",L"""&amp;作業用リスト!E81&amp;"""},"</f>
-        <v>{0,0x0000,L"080:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B81,0)&amp;",0x"&amp;作業用リスト!C81&amp;",L"&amp;":"&amp;作業用リスト!D81&amp;""",L"""&amp;作業用リスト!E81&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A82" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B82,0)&amp;",0x"&amp;作業用リスト!C82&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D82&amp;""",L"""&amp;作業用リスト!E82&amp;"""},"</f>
-        <v>{2,0x2000,L"081:引込非常入限",L"引込非常入限に到達した（LSにて検出）"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B82,0)&amp;",0x"&amp;作業用リスト!C82&amp;",L"&amp;":"&amp;作業用リスト!D82&amp;""",L"""&amp;作業用リスト!E82&amp;"""},"</f>
+        <v>{2,0x2000,L:引込非常入限",L"引込非常入限に到達した（LSにて検出）"},</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A83" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B83,0)&amp;",0x"&amp;作業用リスト!C83&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D83&amp;""",L"""&amp;作業用リスト!E83&amp;"""},"</f>
-        <v>{5,0x0020,L"082:引込常用入限",L"引込常用入限に到達した（LSにて検出）"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B83,0)&amp;",0x"&amp;作業用リスト!C83&amp;",L"&amp;":"&amp;作業用リスト!D83&amp;""",L"""&amp;作業用リスト!E83&amp;"""},"</f>
+        <v>{5,0x0020,L:引込常用入限",L"引込常用入限に到達した（LSにて検出）"},</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A84" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B84,0)&amp;",0x"&amp;作業用リスト!C84&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D84&amp;""",L"""&amp;作業用リスト!E84&amp;"""},"</f>
-        <v>{5,0x0020,L"083:引込高巻1範囲常用出限",L"引込高巻1範囲常用出限に到達した（PGにて検出）"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B84,0)&amp;",0x"&amp;作業用リスト!C84&amp;",L"&amp;":"&amp;作業用リスト!D84&amp;""",L"""&amp;作業用リスト!E84&amp;"""},"</f>
+        <v>{5,0x0020,L:引込高巻1範囲常用出限",L"引込高巻1範囲常用出限に到達した（PGにて検出）"},</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A85" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B85,0)&amp;",0x"&amp;作業用リスト!C85&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D85&amp;""",L"""&amp;作業用リスト!E85&amp;"""},"</f>
-        <v>{2,0x2000,L"084:引込高巻1範囲非常出限",L"引込高巻1範囲非常出限に到達した（LSにて検出）"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B85,0)&amp;",0x"&amp;作業用リスト!C85&amp;",L"&amp;":"&amp;作業用リスト!D85&amp;""",L"""&amp;作業用リスト!E85&amp;"""},"</f>
+        <v>{2,0x2000,L:引込高巻1範囲非常出限",L"引込高巻1範囲非常出限に到達した（LSにて検出）"},</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A86" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B86,0)&amp;",0x"&amp;作業用リスト!C86&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D86&amp;""",L"""&amp;作業用リスト!E86&amp;"""},"</f>
-        <v>{0,0x0000,L"085:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B86,0)&amp;",0x"&amp;作業用リスト!C86&amp;",L"&amp;":"&amp;作業用リスト!D86&amp;""",L"""&amp;作業用リスト!E86&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A87" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B87,0)&amp;",0x"&amp;作業用リスト!C87&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D87&amp;""",L"""&amp;作業用リスト!E87&amp;"""},"</f>
-        <v>{0,0x0000,L"086:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B87,0)&amp;",0x"&amp;作業用リスト!C87&amp;",L"&amp;":"&amp;作業用リスト!D87&amp;""",L"""&amp;作業用リスト!E87&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A88" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B88,0)&amp;",0x"&amp;作業用リスト!C88&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D88&amp;""",L"""&amp;作業用リスト!E88&amp;"""},"</f>
-        <v>{0,0x0000,L"087:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B88,0)&amp;",0x"&amp;作業用リスト!C88&amp;",L"&amp;":"&amp;作業用リスト!D88&amp;""",L"""&amp;作業用リスト!E88&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A89" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B89,0)&amp;",0x"&amp;作業用リスト!C89&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D89&amp;""",L"""&amp;作業用リスト!E89&amp;"""},"</f>
-        <v>{0,0x0000,L"088:引込常用範囲",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B89,0)&amp;",0x"&amp;作業用リスト!C89&amp;",L"&amp;":"&amp;作業用リスト!D89&amp;""",L"""&amp;作業用リスト!E89&amp;"""},"</f>
+        <v>{0,0x0000,L:引込常用範囲",L""},</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A90" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B90,0)&amp;",0x"&amp;作業用リスト!C90&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D90&amp;""",L"""&amp;作業用リスト!E90&amp;"""},"</f>
-        <v>{5,0x0020,L"089:引込常用範囲常用出限",L"引込常用範囲常用出限に到達した（PGにて検出）"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B90,0)&amp;",0x"&amp;作業用リスト!C90&amp;",L"&amp;":"&amp;作業用リスト!D90&amp;""",L"""&amp;作業用リスト!E90&amp;"""},"</f>
+        <v>{5,0x0020,L:引込常用範囲常用出限",L"引込常用範囲常用出限に到達した（PGにて検出）"},</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A91" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B91,0)&amp;",0x"&amp;作業用リスト!C91&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D91&amp;""",L"""&amp;作業用リスト!E91&amp;"""},"</f>
-        <v>{2,0x2000,L"090:引込常用範囲非常出限",L"引込常用範囲非常出限に到達した（LSにて検出）"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B91,0)&amp;",0x"&amp;作業用リスト!C91&amp;",L"&amp;":"&amp;作業用リスト!D91&amp;""",L"""&amp;作業用リスト!E91&amp;"""},"</f>
+        <v>{2,0x2000,L:引込常用範囲非常出限",L"引込常用範囲非常出限に到達した（LSにて検出）"},</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A92" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B92,0)&amp;",0x"&amp;作業用リスト!C92&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D92&amp;""",L"""&amp;作業用リスト!E92&amp;"""},"</f>
-        <v>{5,0x0020,L"091:引込ジブ伏範囲出限",L"引込ジブ伏範囲出限に到達した（LSにて検出）"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B92,0)&amp;",0x"&amp;作業用リスト!C92&amp;",L"&amp;":"&amp;作業用リスト!D92&amp;""",L"""&amp;作業用リスト!E92&amp;"""},"</f>
+        <v>{5,0x0020,L:引込ジブ伏範囲出限",L"引込ジブ伏範囲出限に到達した（LSにて検出）"},</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A93" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B93,0)&amp;",0x"&amp;作業用リスト!C93&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D93&amp;""",L"""&amp;作業用リスト!E93&amp;"""},"</f>
-        <v>{0,0x0000,L"092:引込ジブレスト出限",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B93,0)&amp;",0x"&amp;作業用リスト!C93&amp;",L"&amp;":"&amp;作業用リスト!D93&amp;""",L"""&amp;作業用リスト!E93&amp;"""},"</f>
+        <v>{0,0x0000,L:引込ジブレスト出限",L""},</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A94" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B94,0)&amp;",0x"&amp;作業用リスト!C94&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D94&amp;""",L"""&amp;作業用リスト!E94&amp;"""},"</f>
-        <v>{5,0x0020,L"093:引込ジブレスト出限引込",L"引込ジブレスト出限に到達した（LSにて検出）"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B94,0)&amp;",0x"&amp;作業用リスト!C94&amp;",L"&amp;":"&amp;作業用リスト!D94&amp;""",L"""&amp;作業用リスト!E94&amp;"""},"</f>
+        <v>{5,0x0020,L:引込ジブレスト出限引込",L"引込ジブレスト出限に到達した（LSにて検出）"},</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A95" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B95,0)&amp;",0x"&amp;作業用リスト!C95&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D95&amp;""",L"""&amp;作業用リスト!E95&amp;"""},"</f>
-        <v>{1,0xF800,L"094:引込インバータ故障",L"引込用インバータが正常でない"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B95,0)&amp;",0x"&amp;作業用リスト!C95&amp;",L"&amp;":"&amp;作業用リスト!D95&amp;""",L"""&amp;作業用リスト!E95&amp;"""},"</f>
+        <v>{1,0xF800,L:引込インバータ故障",L"引込用インバータが正常でない"},</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A96" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B96,0)&amp;",0x"&amp;作業用リスト!C96&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D96&amp;""",L"""&amp;作業用リスト!E96&amp;"""},"</f>
-        <v>{0,0x0000,L"095:引込モータ",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B96,0)&amp;",0x"&amp;作業用リスト!C96&amp;",L"&amp;":"&amp;作業用リスト!D96&amp;""",L"""&amp;作業用リスト!E96&amp;"""},"</f>
+        <v>{0,0x0000,L:引込モータ",L""},</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A97" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B97,0)&amp;",0x"&amp;作業用リスト!C97&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D97&amp;""",L"""&amp;作業用リスト!E97&amp;"""},"</f>
-        <v>{4,0x0000,L"096:引込モータ冷却ﾌｧﾝ過負荷",L"引込冷却ファンサーマルトリップ"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B97,0)&amp;",0x"&amp;作業用リスト!C97&amp;",L"&amp;":"&amp;作業用リスト!D97&amp;""",L"""&amp;作業用リスト!E97&amp;"""},"</f>
+        <v>{4,0x0000,L:引込モータ冷却ﾌｧﾝ過負荷",L"引込冷却ファンサーマルトリップ"},</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A98" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B98,0)&amp;",0x"&amp;作業用リスト!C98&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D98&amp;""",L"""&amp;作業用リスト!E98&amp;"""},"</f>
-        <v>{0,0x0000,L"097:引込過速度",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B98,0)&amp;",0x"&amp;作業用リスト!C98&amp;",L"&amp;":"&amp;作業用リスト!D98&amp;""",L"""&amp;作業用リスト!E98&amp;"""},"</f>
+        <v>{0,0x0000,L:引込過速度",L""},</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A99" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B99,0)&amp;",0x"&amp;作業用リスト!C99&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D99&amp;""",L"""&amp;作業用リスト!E99&amp;"""},"</f>
-        <v>{2,0x2000,L"098:引込過速度引込PG",L"引込速度が規定値を超えた（ＰＧにて検出）"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B99,0)&amp;",0x"&amp;作業用リスト!C99&amp;",L"&amp;":"&amp;作業用リスト!D99&amp;""",L"""&amp;作業用リスト!E99&amp;"""},"</f>
+        <v>{2,0x2000,L:引込過速度引込PG",L"引込速度が規定値を超えた（ＰＧにて検出）"},</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A100" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B100,0)&amp;",0x"&amp;作業用リスト!C100&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D100&amp;""",L"""&amp;作業用リスト!E100&amp;"""},"</f>
-        <v>{2,0x2000,L"099:引込PG動作不良",L"引込運転中PGカウント値に変化がない"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B100,0)&amp;",0x"&amp;作業用リスト!C100&amp;",L"&amp;":"&amp;作業用リスト!D100&amp;""",L"""&amp;作業用リスト!E100&amp;"""},"</f>
+        <v>{2,0x2000,L:引込PG動作不良",L"引込運転中PGカウント値に変化がない"},</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A101" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B101,0)&amp;",0x"&amp;作業用リスト!C101&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D101&amp;""",L"""&amp;作業用リスト!E101&amp;"""},"</f>
-        <v>{0,0x0000,L"100:引込",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B101,0)&amp;",0x"&amp;作業用リスト!C101&amp;",L"&amp;":"&amp;作業用リスト!D101&amp;""",L"""&amp;作業用リスト!E101&amp;"""},"</f>
+        <v>{0,0x0000,L:引込",L""},</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A102" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B102,0)&amp;",0x"&amp;作業用リスト!C102&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D102&amp;""",L"""&amp;作業用リスト!E102&amp;"""},"</f>
-        <v>{2,0x2000,L"101:引込ブレーキ過負荷",L"引込ディスクブレーキサーマルトリップ"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B102,0)&amp;",0x"&amp;作業用リスト!C102&amp;",L"&amp;":"&amp;作業用リスト!D102&amp;""",L"""&amp;作業用リスト!E102&amp;"""},"</f>
+        <v>{2,0x2000,L:引込ブレーキ過負荷",L"引込ディスクブレーキサーマルトリップ"},</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A103" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B103,0)&amp;",0x"&amp;作業用リスト!C103&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D103&amp;""",L"""&amp;作業用リスト!E103&amp;"""},"</f>
-        <v>{0,0x0000,L"102:引込操作",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B103,0)&amp;",0x"&amp;作業用リスト!C103&amp;",L"&amp;":"&amp;作業用リスト!D103&amp;""",L"""&amp;作業用リスト!E103&amp;"""},"</f>
+        <v>{0,0x0000,L:引込操作",L""},</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A104" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B104,0)&amp;",0x"&amp;作業用リスト!C104&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D104&amp;""",L"""&amp;作業用リスト!E104&amp;"""},"</f>
-        <v>{0,0x0000,L"103:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B104,0)&amp;",0x"&amp;作業用リスト!C104&amp;",L"&amp;":"&amp;作業用リスト!D104&amp;""",L"""&amp;作業用リスト!E104&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A105" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B105,0)&amp;",0x"&amp;作業用リスト!C105&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D105&amp;""",L"""&amp;作業用リスト!E105&amp;"""},"</f>
-        <v>{0,0x0000,L"104:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B105,0)&amp;",0x"&amp;作業用リスト!C105&amp;",L"&amp;":"&amp;作業用リスト!D105&amp;""",L"""&amp;作業用リスト!E105&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A106" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B106,0)&amp;",0x"&amp;作業用リスト!C106&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D106&amp;""",L"""&amp;作業用リスト!E106&amp;"""},"</f>
-        <v>{0,0x0000,L"105:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B106,0)&amp;",0x"&amp;作業用リスト!C106&amp;",L"&amp;":"&amp;作業用リスト!D106&amp;""",L"""&amp;作業用リスト!E106&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A107" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B107,0)&amp;",0x"&amp;作業用リスト!C107&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D107&amp;""",L"""&amp;作業用リスト!E107&amp;"""},"</f>
-        <v>{0,0x0000,L"106:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B107,0)&amp;",0x"&amp;作業用リスト!C107&amp;",L"&amp;":"&amp;作業用リスト!D107&amp;""",L"""&amp;作業用リスト!E107&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A108" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B108,0)&amp;",0x"&amp;作業用リスト!C108&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D108&amp;""",L"""&amp;作業用リスト!E108&amp;"""},"</f>
-        <v>{0,0x0000,L"107:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B108,0)&amp;",0x"&amp;作業用リスト!C108&amp;",L"&amp;":"&amp;作業用リスト!D108&amp;""",L"""&amp;作業用リスト!E108&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A109" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B109,0)&amp;",0x"&amp;作業用リスト!C109&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D109&amp;""",L"""&amp;作業用リスト!E109&amp;"""},"</f>
-        <v>{5,0x0020,L"108:引込操作モード切替エラー",L"引込運転中に引込選択スイッチを操作した"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B109,0)&amp;",0x"&amp;作業用リスト!C109&amp;",L"&amp;":"&amp;作業用リスト!D109&amp;""",L"""&amp;作業用リスト!E109&amp;"""},"</f>
+        <v>{5,0x0020,L:引込操作モード切替エラー",L"引込運転中に引込選択スイッチを操作した"},</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A110" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B110,0)&amp;",0x"&amp;作業用リスト!C110&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D110&amp;""",L"""&amp;作業用リスト!E110&amp;"""},"</f>
-        <v>{0,0x0000,L"109:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B110,0)&amp;",0x"&amp;作業用リスト!C110&amp;",L"&amp;":"&amp;作業用リスト!D110&amp;""",L"""&amp;作業用リスト!E110&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A111" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B111,0)&amp;",0x"&amp;作業用リスト!C111&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D111&amp;""",L"""&amp;作業用リスト!E111&amp;"""},"</f>
-        <v>{0,0x0000,L"110:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B111,0)&amp;",0x"&amp;作業用リスト!C111&amp;",L"&amp;":"&amp;作業用リスト!D111&amp;""",L"""&amp;作業用リスト!E111&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A112" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B112,0)&amp;",0x"&amp;作業用リスト!C112&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D112&amp;""",L"""&amp;作業用リスト!E112&amp;"""},"</f>
-        <v>{1,0xF800,L"111:旋回インバータ故障",L"旋回用インバータが正常でない"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B112,0)&amp;",0x"&amp;作業用リスト!C112&amp;",L"&amp;":"&amp;作業用リスト!D112&amp;""",L"""&amp;作業用リスト!E112&amp;"""},"</f>
+        <v>{1,0xF800,L:旋回インバータ故障",L"旋回用インバータが正常でない"},</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A113" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B113,0)&amp;",0x"&amp;作業用リスト!C113&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D113&amp;""",L"""&amp;作業用リスト!E113&amp;"""},"</f>
-        <v>{0,0x0000,L"112:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B113,0)&amp;",0x"&amp;作業用リスト!C113&amp;",L"&amp;":"&amp;作業用リスト!D113&amp;""",L"""&amp;作業用リスト!E113&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A114" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B114,0)&amp;",0x"&amp;作業用リスト!C114&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D114&amp;""",L"""&amp;作業用リスト!E114&amp;"""},"</f>
-        <v>{0,0x0000,L"113:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B114,0)&amp;",0x"&amp;作業用リスト!C114&amp;",L"&amp;":"&amp;作業用リスト!D114&amp;""",L"""&amp;作業用リスト!E114&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A115" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B115,0)&amp;",0x"&amp;作業用リスト!C115&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D115&amp;""",L"""&amp;作業用リスト!E115&amp;"""},"</f>
-        <v>{0,0x0000,L"114:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B115,0)&amp;",0x"&amp;作業用リスト!C115&amp;",L"&amp;":"&amp;作業用リスト!D115&amp;""",L"""&amp;作業用リスト!E115&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A116" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B116,0)&amp;",0x"&amp;作業用リスト!C116&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D116&amp;""",L"""&amp;作業用リスト!E116&amp;"""},"</f>
-        <v>{0,0x0000,L"115:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B116,0)&amp;",0x"&amp;作業用リスト!C116&amp;",L"&amp;":"&amp;作業用リスト!D116&amp;""",L"""&amp;作業用リスト!E116&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A117" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B117,0)&amp;",0x"&amp;作業用リスト!C117&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D117&amp;""",L"""&amp;作業用リスト!E117&amp;"""},"</f>
-        <v>{0,0x0000,L"116:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B117,0)&amp;",0x"&amp;作業用リスト!C117&amp;",L"&amp;":"&amp;作業用リスト!D117&amp;""",L"""&amp;作業用リスト!E117&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A118" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B118,0)&amp;",0x"&amp;作業用リスト!C118&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D118&amp;""",L"""&amp;作業用リスト!E118&amp;"""},"</f>
-        <v>{5,0x1000,L"117:旋回足踏ブレーキ未開放",L"旋回足踏ブレーキ未開放のままコントローラを"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B118,0)&amp;",0x"&amp;作業用リスト!C118&amp;",L"&amp;":"&amp;作業用リスト!D118&amp;""",L"""&amp;作業用リスト!E118&amp;"""},"</f>
+        <v>{5,0x1000,L:旋回足踏ブレーキ未開放",L"旋回足踏ブレーキ未開放のままコントローラを"},</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A119" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B119,0)&amp;",0x"&amp;作業用リスト!C119&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D119&amp;""",L"""&amp;作業用リスト!E119&amp;"""},"</f>
-        <v>{0,0x0000,L"118:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B119,0)&amp;",0x"&amp;作業用リスト!C119&amp;",L"&amp;":"&amp;作業用リスト!D119&amp;""",L"""&amp;作業用リスト!E119&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A120" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B120,0)&amp;",0x"&amp;作業用リスト!C120&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D120&amp;""",L"""&amp;作業用リスト!E120&amp;"""},"</f>
-        <v>{0,0x0000,L"119:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B120,0)&amp;",0x"&amp;作業用リスト!C120&amp;",L"&amp;":"&amp;作業用リスト!D120&amp;""",L"""&amp;作業用リスト!E120&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A121" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B121,0)&amp;",0x"&amp;作業用リスト!C121&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D121&amp;""",L"""&amp;作業用リスト!E121&amp;"""},"</f>
-        <v>{4,0x0000,L"120:旋回部給脂装置故障",L"旋回部給脂装置が故障した"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B121,0)&amp;",0x"&amp;作業用リスト!C121&amp;",L"&amp;":"&amp;作業用リスト!D121&amp;""",L"""&amp;作業用リスト!E121&amp;"""},"</f>
+        <v>{4,0x0000,L:旋回部給脂装置故障",L"旋回部給脂装置が故障した"},</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A122" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B122,0)&amp;",0x"&amp;作業用リスト!C122&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D122&amp;""",L"""&amp;作業用リスト!E122&amp;"""},"</f>
-        <v>{0,0x0000,L"121:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B122,0)&amp;",0x"&amp;作業用リスト!C122&amp;",L"&amp;":"&amp;作業用リスト!D122&amp;""",L"""&amp;作業用リスト!E122&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A123" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B123,0)&amp;",0x"&amp;作業用リスト!C123&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D123&amp;""",L"""&amp;作業用リスト!E123&amp;"""},"</f>
-        <v>{0,0x0000,L"122:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B123,0)&amp;",0x"&amp;作業用リスト!C123&amp;",L"&amp;":"&amp;作業用リスト!D123&amp;""",L"""&amp;作業用リスト!E123&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A124" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B124,0)&amp;",0x"&amp;作業用リスト!C124&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D124&amp;""",L"""&amp;作業用リスト!E124&amp;"""},"</f>
-        <v>{0,0x0000,L"123:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B124,0)&amp;",0x"&amp;作業用リスト!C124&amp;",L"&amp;":"&amp;作業用リスト!D124&amp;""",L"""&amp;作業用リスト!E124&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A125" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B125,0)&amp;",0x"&amp;作業用リスト!C125&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D125&amp;""",L"""&amp;作業用リスト!E125&amp;"""},"</f>
-        <v>{0,0x0000,L"124:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B125,0)&amp;",0x"&amp;作業用リスト!C125&amp;",L"&amp;":"&amp;作業用リスト!D125&amp;""",L"""&amp;作業用リスト!E125&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A126" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B126,0)&amp;",0x"&amp;作業用リスト!C126&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D126&amp;""",L"""&amp;作業用リスト!E126&amp;"""},"</f>
-        <v>{0,0x0000,L"125:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B126,0)&amp;",0x"&amp;作業用リスト!C126&amp;",L"&amp;":"&amp;作業用リスト!D126&amp;""",L"""&amp;作業用リスト!E126&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A127" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B127,0)&amp;",0x"&amp;作業用リスト!C127&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D127&amp;""",L"""&amp;作業用リスト!E127&amp;"""},"</f>
-        <v>{0,0x0000,L"126:走行",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B127,0)&amp;",0x"&amp;作業用リスト!C127&amp;",L"&amp;":"&amp;作業用リスト!D127&amp;""",L"""&amp;作業用リスト!E127&amp;"""},"</f>
+        <v>{0,0x0000,L:走行",L""},</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A128" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B128,0)&amp;",0x"&amp;作業用リスト!C128&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D128&amp;""",L"""&amp;作業用リスト!E128&amp;"""},"</f>
-        <v>{0,0x0000,L"127:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B128,0)&amp;",0x"&amp;作業用リスト!C128&amp;",L"&amp;":"&amp;作業用リスト!D128&amp;""",L"""&amp;作業用リスト!E128&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A129" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B129,0)&amp;",0x"&amp;作業用リスト!C129&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D129&amp;""",L"""&amp;作業用リスト!E129&amp;"""},"</f>
-        <v>{0,0x0000,L"128:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B129,0)&amp;",0x"&amp;作業用リスト!C129&amp;",L"&amp;":"&amp;作業用リスト!D129&amp;""",L"""&amp;作業用リスト!E129&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A130" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B130,0)&amp;",0x"&amp;作業用リスト!C130&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D130&amp;""",L"""&amp;作業用リスト!E130&amp;"""},"</f>
-        <v>{0,0x0000,L"129:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B130,0)&amp;",0x"&amp;作業用リスト!C130&amp;",L"&amp;":"&amp;作業用リスト!D130&amp;""",L"""&amp;作業用リスト!E130&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A131" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B131,0)&amp;",0x"&amp;作業用リスト!C131&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D131&amp;""",L"""&amp;作業用リスト!E131&amp;"""},"</f>
-        <v>{0,0x0000,L"130:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B131,0)&amp;",0x"&amp;作業用リスト!C131&amp;",L"&amp;":"&amp;作業用リスト!D131&amp;""",L"""&amp;作業用リスト!E131&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A132" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B132,0)&amp;",0x"&amp;作業用リスト!C132&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D132&amp;""",L"""&amp;作業用リスト!E132&amp;"""},"</f>
-        <v>{1,0xF800,L"131:走行インバータ故障",L"走行インバータが正常でない"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B132,0)&amp;",0x"&amp;作業用リスト!C132&amp;",L"&amp;":"&amp;作業用リスト!D132&amp;""",L"""&amp;作業用リスト!E132&amp;"""},"</f>
+        <v>{1,0xF800,L:走行インバータ故障",L"走行インバータが正常でない"},</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A133" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B133,0)&amp;",0x"&amp;作業用リスト!C133&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D133&amp;""",L"""&amp;作業用リスト!E133&amp;"""},"</f>
-        <v>{2,0x0800,L"132:走行モータ過負荷",L"走行電動機サーマルトリップ"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B133,0)&amp;",0x"&amp;作業用リスト!C133&amp;",L"&amp;":"&amp;作業用リスト!D133&amp;""",L"""&amp;作業用リスト!E133&amp;"""},"</f>
+        <v>{2,0x0800,L:走行モータ過負荷",L"走行電動機サーマルトリップ"},</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A134" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B134,0)&amp;",0x"&amp;作業用リスト!C134&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D134&amp;""",L"""&amp;作業用リスト!E134&amp;"""},"</f>
-        <v>{0,0x0000,L"133:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B134,0)&amp;",0x"&amp;作業用リスト!C134&amp;",L"&amp;":"&amp;作業用リスト!D134&amp;""",L"""&amp;作業用リスト!E134&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A135" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B135,0)&amp;",0x"&amp;作業用リスト!C135&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D135&amp;""",L"""&amp;作業用リスト!E135&amp;"""},"</f>
-        <v>{0,0x0000,L"134:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B135,0)&amp;",0x"&amp;作業用リスト!C135&amp;",L"&amp;":"&amp;作業用リスト!D135&amp;""",L"""&amp;作業用リスト!E135&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A136" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B136,0)&amp;",0x"&amp;作業用リスト!C136&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D136&amp;""",L"""&amp;作業用リスト!E136&amp;"""},"</f>
-        <v>{0,0x0000,L"135:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B136,0)&amp;",0x"&amp;作業用リスト!C136&amp;",L"&amp;":"&amp;作業用リスト!D136&amp;""",L"""&amp;作業用リスト!E136&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A137" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B137,0)&amp;",0x"&amp;作業用リスト!C137&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D137&amp;""",L"""&amp;作業用リスト!E137&amp;"""},"</f>
-        <v>{5,0x0800,L"136:走行固定装置未開放",L"未開放の状態で走行運転操作した。"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B137,0)&amp;",0x"&amp;作業用リスト!C137&amp;",L"&amp;":"&amp;作業用リスト!D137&amp;""",L"""&amp;作業用リスト!E137&amp;"""},"</f>
+        <v>{5,0x0800,L:走行固定装置未開放",L"未開放の状態で走行運転操作した。"},</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A138" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B138,0)&amp;",0x"&amp;作業用リスト!C138&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D138&amp;""",L"""&amp;作業用リスト!E138&amp;"""},"</f>
-        <v>{0,0x0000,L"137:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B138,0)&amp;",0x"&amp;作業用リスト!C138&amp;",L"&amp;":"&amp;作業用リスト!D138&amp;""",L"""&amp;作業用リスト!E138&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A139" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B139,0)&amp;",0x"&amp;作業用リスト!C139&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D139&amp;""",L"""&amp;作業用リスト!E139&amp;"""},"</f>
-        <v>{5,0x0008,L"138:走行（海）極限 ",L"走行極限（海側）位置に到達した"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B139,0)&amp;",0x"&amp;作業用リスト!C139&amp;",L"&amp;":"&amp;作業用リスト!D139&amp;""",L"""&amp;作業用リスト!E139&amp;"""},"</f>
+        <v>{5,0x0008,L:走行（海）極限 ",L"走行極限（海側）位置に到達した"},</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A140" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B140,0)&amp;",0x"&amp;作業用リスト!C140&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D140&amp;""",L"""&amp;作業用リスト!E140&amp;"""},"</f>
-        <v>{5,0x0008,L"139:走行（山）極限 ",L"走行極限（山側）位置に到達した"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B140,0)&amp;",0x"&amp;作業用リスト!C140&amp;",L"&amp;":"&amp;作業用リスト!D140&amp;""",L"""&amp;作業用リスト!E140&amp;"""},"</f>
+        <v>{5,0x0008,L:走行（山）極限 ",L"走行極限（山側）位置に到達した"},</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A141" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B141,0)&amp;",0x"&amp;作業用リスト!C141&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D141&amp;""",L"""&amp;作業用リスト!E141&amp;"""},"</f>
-        <v>{2,0x0800,L"140:走行ブレーキ過負荷",L"走行ブレーキサーマルトリップ"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B141,0)&amp;",0x"&amp;作業用リスト!C141&amp;",L"&amp;":"&amp;作業用リスト!D141&amp;""",L"""&amp;作業用リスト!E141&amp;"""},"</f>
+        <v>{2,0x0800,L:走行ブレーキ過負荷",L"走行ブレーキサーマルトリップ"},</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A142" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B142,0)&amp;",0x"&amp;作業用リスト!C142&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D142&amp;""",L"""&amp;作業用リスト!E142&amp;"""},"</f>
-        <v>{3,0x0008,L"141:ケーブルリールモータ過負荷",L"ケーブルリール用モータ過負荷"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B142,0)&amp;",0x"&amp;作業用リスト!C142&amp;",L"&amp;":"&amp;作業用リスト!D142&amp;""",L"""&amp;作業用リスト!E142&amp;"""},"</f>
+        <v>{3,0x0008,L:ケーブルリールモータ過負荷",L"ケーブルリール用モータ過負荷"},</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A143" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B143,0)&amp;",0x"&amp;作業用リスト!C143&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D143&amp;""",L"""&amp;作業用リスト!E143&amp;"""},"</f>
-        <v>{0,0x0000,L"142:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B143,0)&amp;",0x"&amp;作業用リスト!C143&amp;",L"&amp;":"&amp;作業用リスト!D143&amp;""",L"""&amp;作業用リスト!E143&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A144" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B144,0)&amp;",0x"&amp;作業用リスト!C144&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D144&amp;""",L"""&amp;作業用リスト!E144&amp;"""},"</f>
-        <v>{0,0x0000,L"143:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B144,0)&amp;",0x"&amp;作業用リスト!C144&amp;",L"&amp;":"&amp;作業用リスト!D144&amp;""",L"""&amp;作業用リスト!E144&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A145" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B145,0)&amp;",0x"&amp;作業用リスト!C145&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D145&amp;""",L"""&amp;作業用リスト!E145&amp;"""},"</f>
-        <v>{0,0x0000,L"144:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B145,0)&amp;",0x"&amp;作業用リスト!C145&amp;",L"&amp;":"&amp;作業用リスト!D145&amp;""",L"""&amp;作業用リスト!E145&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A146" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B146,0)&amp;",0x"&amp;作業用リスト!C146&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D146&amp;""",L"""&amp;作業用リスト!E146&amp;"""},"</f>
-        <v>{0,0x0000,L"145:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B146,0)&amp;",0x"&amp;作業用リスト!C146&amp;",L"&amp;":"&amp;作業用リスト!D146&amp;""",L"""&amp;作業用リスト!E146&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A147" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B147,0)&amp;",0x"&amp;作業用リスト!C147&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D147&amp;""",L"""&amp;作業用リスト!E147&amp;"""},"</f>
-        <v>{0,0x0000,L"146:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B147,0)&amp;",0x"&amp;作業用リスト!C147&amp;",L"&amp;":"&amp;作業用リスト!D147&amp;""",L"""&amp;作業用リスト!E147&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A148" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B148,0)&amp;",0x"&amp;作業用リスト!C148&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D148&amp;""",L"""&amp;作業用リスト!E148&amp;"""},"</f>
-        <v>{0,0x0000,L"147:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B148,0)&amp;",0x"&amp;作業用リスト!C148&amp;",L"&amp;":"&amp;作業用リスト!D148&amp;""",L"""&amp;作業用リスト!E148&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A149" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B149,0)&amp;",0x"&amp;作業用リスト!C149&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D149&amp;""",L"""&amp;作業用リスト!E149&amp;"""},"</f>
-        <v>{0,0x0000,L"148:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B149,0)&amp;",0x"&amp;作業用リスト!C149&amp;",L"&amp;":"&amp;作業用リスト!D149&amp;""",L"""&amp;作業用リスト!E149&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A150" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B150,0)&amp;",0x"&amp;作業用リスト!C150&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D150&amp;""",L"""&amp;作業用リスト!E150&amp;"""},"</f>
-        <v>{0,0x0000,L"149:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B150,0)&amp;",0x"&amp;作業用リスト!C150&amp;",L"&amp;":"&amp;作業用リスト!D150&amp;""",L"""&amp;作業用リスト!E150&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A151" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B151,0)&amp;",0x"&amp;作業用リスト!C151&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D151&amp;""",L"""&amp;作業用リスト!E151&amp;"""},"</f>
-        <v>{0,0x0000,L"150:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B151,0)&amp;",0x"&amp;作業用リスト!C151&amp;",L"&amp;":"&amp;作業用リスト!D151&amp;""",L"""&amp;作業用リスト!E151&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A152" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B152,0)&amp;",0x"&amp;作業用リスト!C152&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D152&amp;""",L"""&amp;作業用リスト!E152&amp;"""},"</f>
-        <v>{4,0x0000,L"151:制動抵抗器冷却ファン過負荷",L"制動抵抗器用冷却ファンサーマルトリップ"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B152,0)&amp;",0x"&amp;作業用リスト!C152&amp;",L"&amp;":"&amp;作業用リスト!D152&amp;""",L"""&amp;作業用リスト!E152&amp;"""},"</f>
+        <v>{4,0x0000,L:制動抵抗器冷却ファン過負荷",L"制動抵抗器用冷却ファンサーマルトリップ"},</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A153" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B153,0)&amp;",0x"&amp;作業用リスト!C153&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D153&amp;""",L"""&amp;作業用リスト!E153&amp;"""},"</f>
-        <v>{0,0x0000,L"152:制動抵抗器",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B153,0)&amp;",0x"&amp;作業用リスト!C153&amp;",L"&amp;":"&amp;作業用リスト!D153&amp;""",L"""&amp;作業用リスト!E153&amp;"""},"</f>
+        <v>{0,0x0000,L:制動抵抗器",L""},</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A154" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B154,0)&amp;",0x"&amp;作業用リスト!C154&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D154&amp;""",L"""&amp;作業用リスト!E154&amp;"""},"</f>
-        <v>{1,0xF800,L"153:制動抵抗器過熱",L"制動抵抗器内の温度センサが作動"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B154,0)&amp;",0x"&amp;作業用リスト!C154&amp;",L"&amp;":"&amp;作業用リスト!D154&amp;""",L"""&amp;作業用リスト!E154&amp;"""},"</f>
+        <v>{1,0xF800,L:制動抵抗器過熱",L"制動抵抗器内の温度センサが作動"},</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A155" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B155,0)&amp;",0x"&amp;作業用リスト!C155&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D155&amp;""",L"""&amp;作業用リスト!E155&amp;"""},"</f>
-        <v>{1,0xF800,L"154:No.1制動ユニット故障",L"制動ユニットが故障を検出した"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B155,0)&amp;",0x"&amp;作業用リスト!C155&amp;",L"&amp;":"&amp;作業用リスト!D155&amp;""",L"""&amp;作業用リスト!E155&amp;"""},"</f>
+        <v>{1,0xF800,L:No.1制動ユニット故障",L"制動ユニットが故障を検出した"},</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A156" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B156,0)&amp;",0x"&amp;作業用リスト!C156&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D156&amp;""",L"""&amp;作業用リスト!E156&amp;"""},"</f>
-        <v>{1,0xF800,L"155:No.2制動ユニット故障",L"制動ユニットが故障を検出した"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B156,0)&amp;",0x"&amp;作業用リスト!C156&amp;",L"&amp;":"&amp;作業用リスト!D156&amp;""",L"""&amp;作業用リスト!E156&amp;"""},"</f>
+        <v>{1,0xF800,L:No.2制動ユニット故障",L"制動ユニットが故障を検出した"},</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A157" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B157,0)&amp;",0x"&amp;作業用リスト!C157&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D157&amp;""",L"""&amp;作業用リスト!E157&amp;"""},"</f>
-        <v>{1,0xF800,L"156:No.3制動ユニット故障",L"制動ユニットが故障を検出した"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B157,0)&amp;",0x"&amp;作業用リスト!C157&amp;",L"&amp;":"&amp;作業用リスト!D157&amp;""",L"""&amp;作業用リスト!E157&amp;"""},"</f>
+        <v>{1,0xF800,L:No.3制動ユニット故障",L"制動ユニットが故障を検出した"},</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A158" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B158,0)&amp;",0x"&amp;作業用リスト!C158&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D158&amp;""",L"""&amp;作業用リスト!E158&amp;"""},"</f>
-        <v>{1,0xF800,L"157:No.4制動ユニット故障",L"制動ユニットが故障を検出した"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B158,0)&amp;",0x"&amp;作業用リスト!C158&amp;",L"&amp;":"&amp;作業用リスト!D158&amp;""",L"""&amp;作業用リスト!E158&amp;"""},"</f>
+        <v>{1,0xF800,L:No.4制動ユニット故障",L"制動ユニットが故障を検出した"},</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A159" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B159,0)&amp;",0x"&amp;作業用リスト!C159&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D159&amp;""",L"""&amp;作業用リスト!E159&amp;"""},"</f>
-        <v>{0,0x0000,L"158:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B159,0)&amp;",0x"&amp;作業用リスト!C159&amp;",L"&amp;":"&amp;作業用リスト!D159&amp;""",L"""&amp;作業用リスト!E159&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A160" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B160,0)&amp;",0x"&amp;作業用リスト!C160&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D160&amp;""",L"""&amp;作業用リスト!E160&amp;"""},"</f>
-        <v>{0,0x0000,L"159:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B160,0)&amp;",0x"&amp;作業用リスト!C160&amp;",L"&amp;":"&amp;作業用リスト!D160&amp;""",L"""&amp;作業用リスト!E160&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A161" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B161,0)&amp;",0x"&amp;作業用リスト!C161&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D161&amp;""",L"""&amp;作業用リスト!E161&amp;"""},"</f>
-        <v>{0,0x0000,L"160:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B161,0)&amp;",0x"&amp;作業用リスト!C161&amp;",L"&amp;":"&amp;作業用リスト!D161&amp;""",L"""&amp;作業用リスト!E161&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A162" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B162,0)&amp;",0x"&amp;作業用リスト!C162&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D162&amp;""",L"""&amp;作業用リスト!E162&amp;"""},"</f>
-        <v>{0,0x0000,L"161:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B162,0)&amp;",0x"&amp;作業用リスト!C162&amp;",L"&amp;":"&amp;作業用リスト!D162&amp;""",L"""&amp;作業用リスト!E162&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A163" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B163,0)&amp;",0x"&amp;作業用リスト!C163&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D163&amp;""",L"""&amp;作業用リスト!E163&amp;"""},"</f>
-        <v>{0,0x0000,L"162:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B163,0)&amp;",0x"&amp;作業用リスト!C163&amp;",L"&amp;":"&amp;作業用リスト!D163&amp;""",L"""&amp;作業用リスト!E163&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A164" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B164,0)&amp;",0x"&amp;作業用リスト!C164&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D164&amp;""",L"""&amp;作業用リスト!E164&amp;"""},"</f>
-        <v>{0,0x0000,L"163:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B164,0)&amp;",0x"&amp;作業用リスト!C164&amp;",L"&amp;":"&amp;作業用リスト!D164&amp;""",L"""&amp;作業用リスト!E164&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A165" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B165,0)&amp;",0x"&amp;作業用リスト!C165&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D165&amp;""",L"""&amp;作業用リスト!E165&amp;"""},"</f>
-        <v>{5,0x0060,L"164:過荷重又はモーメントリミッタ停止",L"モーメントリミッタが100%荷重を検出"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B165,0)&amp;",0x"&amp;作業用リスト!C165&amp;",L"&amp;":"&amp;作業用リスト!D165&amp;""",L"""&amp;作業用リスト!E165&amp;"""},"</f>
+        <v>{5,0x0060,L:過荷重又はモーメントリミッタ停止",L"モーメントリミッタが100%荷重を検出"},</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A166" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B166,0)&amp;",0x"&amp;作業用リスト!C166&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D166&amp;""",L"""&amp;作業用リスト!E166&amp;"""},"</f>
-        <v>{4,0x0000,L"165:過荷重又はモーメントリミッタ90％予報",L"モーメントリミッタが90%荷重を検出"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B166,0)&amp;",0x"&amp;作業用リスト!C166&amp;",L"&amp;":"&amp;作業用リスト!D166&amp;""",L"""&amp;作業用リスト!E166&amp;"""},"</f>
+        <v>{4,0x0000,L:過荷重又はモーメントリミッタ90％予報",L"モーメントリミッタが90%荷重を検出"},</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A167" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B167,0)&amp;",0x"&amp;作業用リスト!C167&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D167&amp;""",L"""&amp;作業用リスト!E167&amp;"""},"</f>
-        <v>{3,0x0060,L"166:モーメントリミッタエラー警報",L"モーメントリミッタがエラーを検出"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B167,0)&amp;",0x"&amp;作業用リスト!C167&amp;",L"&amp;":"&amp;作業用リスト!D167&amp;""",L"""&amp;作業用リスト!E167&amp;"""},"</f>
+        <v>{3,0x0060,L:モーメントリミッタエラー警報",L"モーメントリミッタがエラーを検出"},</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A168" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B168,0)&amp;",0x"&amp;作業用リスト!C168&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D168&amp;""",L"""&amp;作業用リスト!E168&amp;"""},"</f>
-        <v>{0,0x0000,L"167:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B168,0)&amp;",0x"&amp;作業用リスト!C168&amp;",L"&amp;":"&amp;作業用リスト!D168&amp;""",L"""&amp;作業用リスト!E168&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A169" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B169,0)&amp;",0x"&amp;作業用リスト!C169&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D169&amp;""",L"""&amp;作業用リスト!E169&amp;"""},"</f>
-        <v>{0,0x0000,L"168:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B169,0)&amp;",0x"&amp;作業用リスト!C169&amp;",L"&amp;":"&amp;作業用リスト!D169&amp;""",L"""&amp;作業用リスト!E169&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A170" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B170,0)&amp;",0x"&amp;作業用リスト!C170&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D170&amp;""",L"""&amp;作業用リスト!E170&amp;"""},"</f>
-        <v>{0,0x0000,L"169:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B170,0)&amp;",0x"&amp;作業用リスト!C170&amp;",L"&amp;":"&amp;作業用リスト!D170&amp;""",L"""&amp;作業用リスト!E170&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A171" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B171,0)&amp;",0x"&amp;作業用リスト!C171&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D171&amp;""",L"""&amp;作業用リスト!E171&amp;"""},"</f>
-        <v>{0,0x0000,L"170:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B171,0)&amp;",0x"&amp;作業用リスト!C171&amp;",L"&amp;":"&amp;作業用リスト!D171&amp;""",L"""&amp;作業用リスト!E171&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A172" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B172,0)&amp;",0x"&amp;作業用リスト!C172&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D172&amp;""",L"""&amp;作業用リスト!E172&amp;"""},"</f>
-        <v>{0,0x0000,L"171:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B172,0)&amp;",0x"&amp;作業用リスト!C172&amp;",L"&amp;":"&amp;作業用リスト!D172&amp;""",L"""&amp;作業用リスト!E172&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A173" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B173,0)&amp;",0x"&amp;作業用リスト!C173&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D173&amp;""",L"""&amp;作業用リスト!E173&amp;"""},"</f>
-        <v>{1,0xF800,L"172:コンバータ用遮断器MCCB11､12ﾄﾘｯﾌﾟ/未投入",L"コンバータ電源用MCCBがﾄﾘｯﾌﾟ又は未投入"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B173,0)&amp;",0x"&amp;作業用リスト!C173&amp;",L"&amp;":"&amp;作業用リスト!D173&amp;""",L"""&amp;作業用リスト!E173&amp;"""},"</f>
+        <v>{1,0xF800,L:コンバータ用遮断器MCCB11､12ﾄﾘｯﾌﾟ/未投入",L"コンバータ電源用MCCBがﾄﾘｯﾌﾟ又は未投入"},</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A174" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B174,0)&amp;",0x"&amp;作業用リスト!C174&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D174&amp;""",L"""&amp;作業用リスト!E174&amp;"""},"</f>
-        <v>{1,0xF800,L"173:ｲﾝﾊﾞｰﾀ制御電源用遮断器MCCB １５トリップ/未投入ブレーキ用遮断器",L"インバータ制御電源用MCCBがﾄﾘｯﾌﾟ又は未投入"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B174,0)&amp;",0x"&amp;作業用リスト!C174&amp;",L"&amp;":"&amp;作業用リスト!D174&amp;""",L"""&amp;作業用リスト!E174&amp;"""},"</f>
+        <v>{1,0xF800,L:ｲﾝﾊﾞｰﾀ制御電源用遮断器MCCB １５トリップ/未投入ブレーキ用遮断器",L"インバータ制御電源用MCCBがﾄﾘｯﾌﾟ又は未投入"},</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A175" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B175,0)&amp;",0x"&amp;作業用リスト!C175&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D175&amp;""",L"""&amp;作業用リスト!E175&amp;"""},"</f>
-        <v>{1,0xF800,L"174:ブレーキ用遮断器MCCB０３トリップ/未投入",L"ブレーキ電源用MCCBがﾄﾘｯﾌﾟ又は未投入"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B175,0)&amp;",0x"&amp;作業用リスト!C175&amp;",L"&amp;":"&amp;作業用リスト!D175&amp;""",L"""&amp;作業用リスト!E175&amp;"""},"</f>
+        <v>{1,0xF800,L:ブレーキ用遮断器MCCB０３トリップ/未投入",L"ブレーキ電源用MCCBがﾄﾘｯﾌﾟ又は未投入"},</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A176" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B176,0)&amp;",0x"&amp;作業用リスト!C176&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D176&amp;""",L"""&amp;作業用リスト!E176&amp;"""},"</f>
-        <v>{4,0x0000,L"175:電動機冷却ファン用遮断器MCCB０８トリップ/未投入ＤＢ抵抗器冷却ﾌｧﾝ用遮断器MCCB ０７トリップ/未投入",L"電動機冷却ファン用MCCBがﾄﾘｯﾌﾟ又は未投入"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B176,0)&amp;",0x"&amp;作業用リスト!C176&amp;",L"&amp;":"&amp;作業用リスト!D176&amp;""",L"""&amp;作業用リスト!E176&amp;"""},"</f>
+        <v>{4,0x0000,L:電動機冷却ファン用遮断器MCCB０８トリップ/未投入",L"電動機冷却ファン用MCCBがﾄﾘｯﾌﾟ又は未投入"},</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A177" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B177,0)&amp;",0x"&amp;作業用リスト!C177&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D177&amp;""",L"""&amp;作業用リスト!E177&amp;"""},"</f>
-        <v>{4,0x0000,L"176:ＤＢ抵抗器冷却ﾌｧﾝ用遮断器MCCB ０７トリップ/未投入ケーブルリール用遮断器MCCB ９０トリップ/未投入",L"ＤＢ抵抗器冷却ファン電源用MCCBがﾄﾘｯﾌﾟ又は未投入"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B177,0)&amp;",0x"&amp;作業用リスト!C177&amp;",L"&amp;":"&amp;作業用リスト!D177&amp;""",L"""&amp;作業用リスト!E177&amp;"""},"</f>
+        <v>{4,0x0000,L:ＤＢ抵抗器冷却ﾌｧﾝ用遮断器MCCB ０７トリップ/未投入",L"ＤＢ抵抗器冷却ファン電源用MCCBがﾄﾘｯﾌﾟ又は未投入"},</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A178" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B178,0)&amp;",0x"&amp;作業用リスト!C178&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D178&amp;""",L"""&amp;作業用リスト!E178&amp;"""},"</f>
-        <v>{3,0x0008,L"177:ケーブルリール用遮断器MCCB ９０トリップ/未投入",L"ケーブルリール電動機電源用MCCBがﾄﾘｯﾌﾟ又は未投入"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B178,0)&amp;",0x"&amp;作業用リスト!C178&amp;",L"&amp;":"&amp;作業用リスト!D178&amp;""",L"""&amp;作業用リスト!E178&amp;"""},"</f>
+        <v>{3,0x0008,L:ケーブルリール用遮断器MCCB ９０トリップ/未投入",L"ケーブルリール電動機電源用MCCBがﾄﾘｯﾌﾟ又は未投入"},</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A179" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B179,0)&amp;",0x"&amp;作業用リスト!C179&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D179&amp;""",L"""&amp;作業用リスト!E179&amp;"""},"</f>
-        <v>{0,0x0000,L"178:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B179,0)&amp;",0x"&amp;作業用リスト!C179&amp;",L"&amp;":"&amp;作業用リスト!D179&amp;""",L"""&amp;作業用リスト!E179&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A180" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B180,0)&amp;",0x"&amp;作業用リスト!C180&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D180&amp;""",L"""&amp;作業用リスト!E180&amp;"""},"</f>
-        <v>{0,0x0000,L"179:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B180,0)&amp;",0x"&amp;作業用リスト!C180&amp;",L"&amp;":"&amp;作業用リスト!D180&amp;""",L"""&amp;作業用リスト!E180&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A181" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B181,0)&amp;",0x"&amp;作業用リスト!C181&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D181&amp;""",L"""&amp;作業用リスト!E181&amp;"""},"</f>
-        <v>{0,0x0000,L"180:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B181,0)&amp;",0x"&amp;作業用リスト!C181&amp;",L"&amp;":"&amp;作業用リスト!D181&amp;""",L"""&amp;作業用リスト!E181&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A182" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B182,0)&amp;",0x"&amp;作業用リスト!C182&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D182&amp;""",L"""&amp;作業用リスト!E182&amp;"""},"</f>
-        <v>{4,0x0000,L"181:旋回部給脂装置用遮断器MCCB９８トリップ/未投入",L"旋回部給脂装置用MCCBがトリップ又は未投入"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B182,0)&amp;",0x"&amp;作業用リスト!C182&amp;",L"&amp;":"&amp;作業用リスト!D182&amp;""",L"""&amp;作業用リスト!E182&amp;"""},"</f>
+        <v>{4,0x0000,L:旋回部給脂装置用遮断器MCCB９８トリップ/未投入",L"旋回部給脂装置用MCCBがトリップ又は未投入"},</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A183" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B183,0)&amp;",0x"&amp;作業用リスト!C183&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D183&amp;""",L"""&amp;作業用リスト!E183&amp;"""},"</f>
-        <v>{0,0x0000,L"182:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B183,0)&amp;",0x"&amp;作業用リスト!C183&amp;",L"&amp;":"&amp;作業用リスト!D183&amp;""",L"""&amp;作業用リスト!E183&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A184" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B184,0)&amp;",0x"&amp;作業用リスト!C184&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D184&amp;""",L"""&amp;作業用リスト!E184&amp;"""},"</f>
-        <v>{0,0x0000,L"183:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B184,0)&amp;",0x"&amp;作業用リスト!C184&amp;",L"&amp;":"&amp;作業用リスト!D184&amp;""",L"""&amp;作業用リスト!E184&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A185" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B185,0)&amp;",0x"&amp;作業用リスト!C185&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D185&amp;""",L"""&amp;作業用リスト!E185&amp;"""},"</f>
-        <v>{0,0x0000,L"184:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B185,0)&amp;",0x"&amp;作業用リスト!C185&amp;",L"&amp;":"&amp;作業用リスト!D185&amp;""",L"""&amp;作業用リスト!E185&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A186" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B186,0)&amp;",0x"&amp;作業用リスト!C186&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D186&amp;""",L"""&amp;作業用リスト!E186&amp;"""},"</f>
-        <v>{0,0x0000,L"185:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B186,0)&amp;",0x"&amp;作業用リスト!C186&amp;",L"&amp;":"&amp;作業用リスト!D186&amp;""",L"""&amp;作業用リスト!E186&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A187" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B187,0)&amp;",0x"&amp;作業用リスト!C187&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D187&amp;""",L"""&amp;作業用リスト!E187&amp;"""},"</f>
-        <v>{0,0x0000,L"186:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B187,0)&amp;",0x"&amp;作業用リスト!C187&amp;",L"&amp;":"&amp;作業用リスト!D187&amp;""",L"""&amp;作業用リスト!E187&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A188" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B188,0)&amp;",0x"&amp;作業用リスト!C188&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D188&amp;""",L"""&amp;作業用リスト!E188&amp;"""},"</f>
-        <v>{0,0x0000,L"187:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B188,0)&amp;",0x"&amp;作業用リスト!C188&amp;",L"&amp;":"&amp;作業用リスト!D188&amp;""",L"""&amp;作業用リスト!E188&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A189" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B189,0)&amp;",0x"&amp;作業用リスト!C189&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D189&amp;""",L"""&amp;作業用リスト!E189&amp;"""},"</f>
-        <v>{0,0x0000,L"188:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B189,0)&amp;",0x"&amp;作業用リスト!C189&amp;",L"&amp;":"&amp;作業用リスト!D189&amp;""",L"""&amp;作業用リスト!E189&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A190" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B190,0)&amp;",0x"&amp;作業用リスト!C190&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D190&amp;""",L"""&amp;作業用リスト!E190&amp;"""},"</f>
-        <v>{0,0x0000,L"189:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B190,0)&amp;",0x"&amp;作業用リスト!C190&amp;",L"&amp;":"&amp;作業用リスト!D190&amp;""",L"""&amp;作業用リスト!E190&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A191" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B191,0)&amp;",0x"&amp;作業用リスト!C191&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D191&amp;""",L"""&amp;作業用リスト!E191&amp;"""},"</f>
-        <v>{0,0x0000,L"190:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B191,0)&amp;",0x"&amp;作業用リスト!C191&amp;",L"&amp;":"&amp;作業用リスト!D191&amp;""",L"""&amp;作業用リスト!E191&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A192" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B192,0)&amp;",0x"&amp;作業用リスト!C192&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D192&amp;""",L"""&amp;作業用リスト!E192&amp;"""},"</f>
-        <v>{0,0x0000,L"191:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B192,0)&amp;",0x"&amp;作業用リスト!C192&amp;",L"&amp;":"&amp;作業用リスト!D192&amp;""",L"""&amp;作業用リスト!E192&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A193" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B193,0)&amp;",0x"&amp;作業用リスト!C193&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D193&amp;""",L"""&amp;作業用リスト!E193&amp;"""},"</f>
-        <v>{0,0x0000,L"192:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B193,0)&amp;",0x"&amp;作業用リスト!C193&amp;",L"&amp;":"&amp;作業用リスト!D193&amp;""",L"""&amp;作業用リスト!E193&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A194" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B194,0)&amp;",0x"&amp;作業用リスト!C194&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D194&amp;""",L"""&amp;作業用リスト!E194&amp;"""},"</f>
-        <v>{0,0x0000,L"193:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B194,0)&amp;",0x"&amp;作業用リスト!C194&amp;",L"&amp;":"&amp;作業用リスト!D194&amp;""",L"""&amp;作業用リスト!E194&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A195" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B195,0)&amp;",0x"&amp;作業用リスト!C195&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D195&amp;""",L"""&amp;作業用リスト!E195&amp;"""},"</f>
-        <v>{0,0x0000,L"194:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B195,0)&amp;",0x"&amp;作業用リスト!C195&amp;",L"&amp;":"&amp;作業用リスト!D195&amp;""",L"""&amp;作業用リスト!E195&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A196" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B196,0)&amp;",0x"&amp;作業用リスト!C196&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D196&amp;""",L"""&amp;作業用リスト!E196&amp;"""},"</f>
-        <v>{0,0x0000,L"195:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B196,0)&amp;",0x"&amp;作業用リスト!C196&amp;",L"&amp;":"&amp;作業用リスト!D196&amp;""",L"""&amp;作業用リスト!E196&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A197" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B197,0)&amp;",0x"&amp;作業用リスト!C197&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D197&amp;""",L"""&amp;作業用リスト!E197&amp;"""},"</f>
-        <v>{0,0x0000,L"196:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B197,0)&amp;",0x"&amp;作業用リスト!C197&amp;",L"&amp;":"&amp;作業用リスト!D197&amp;""",L"""&amp;作業用リスト!E197&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A198" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B198,0)&amp;",0x"&amp;作業用リスト!C198&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D198&amp;""",L"""&amp;作業用リスト!E198&amp;"""},"</f>
-        <v>{0,0x0000,L"197:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B198,0)&amp;",0x"&amp;作業用リスト!C198&amp;",L"&amp;":"&amp;作業用リスト!D198&amp;""",L"""&amp;作業用リスト!E198&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A199" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B199,0)&amp;",0x"&amp;作業用リスト!C199&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D199&amp;""",L"""&amp;作業用リスト!E199&amp;"""},"</f>
-        <v>{0,0x0000,L"198:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B199,0)&amp;",0x"&amp;作業用リスト!C199&amp;",L"&amp;":"&amp;作業用リスト!D199&amp;""",L"""&amp;作業用リスト!E199&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A200" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B200,0)&amp;",0x"&amp;作業用リスト!C200&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D200&amp;""",L"""&amp;作業用リスト!E200&amp;"""},"</f>
-        <v>{0,0x0000,L"199:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B200,0)&amp;",0x"&amp;作業用リスト!C200&amp;",L"&amp;":"&amp;作業用リスト!D200&amp;""",L"""&amp;作業用リスト!E200&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A201" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B201,0)&amp;",0x"&amp;作業用リスト!C201&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D201&amp;""",L"""&amp;作業用リスト!E201&amp;"""},"</f>
-        <v>{0,0x0000,L"200:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B201,0)&amp;",0x"&amp;作業用リスト!C201&amp;",L"&amp;":"&amp;作業用リスト!D201&amp;""",L"""&amp;作業用リスト!E201&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A202" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B202,0)&amp;",0x"&amp;作業用リスト!C202&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D202&amp;""",L"""&amp;作業用リスト!E202&amp;"""},"</f>
-        <v>{0,0x0000,L"201:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B202,0)&amp;",0x"&amp;作業用リスト!C202&amp;",L"&amp;":"&amp;作業用リスト!D202&amp;""",L"""&amp;作業用リスト!E202&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A203" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B203,0)&amp;",0x"&amp;作業用リスト!C203&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D203&amp;""",L"""&amp;作業用リスト!E203&amp;"""},"</f>
-        <v>{0,0x0000,L"202:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B203,0)&amp;",0x"&amp;作業用リスト!C203&amp;",L"&amp;":"&amp;作業用リスト!D203&amp;""",L"""&amp;作業用リスト!E203&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A204" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B204,0)&amp;",0x"&amp;作業用リスト!C204&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D204&amp;""",L"""&amp;作業用リスト!E204&amp;"""},"</f>
-        <v>{0,0x0000,L"203:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B204,0)&amp;",0x"&amp;作業用リスト!C204&amp;",L"&amp;":"&amp;作業用リスト!D204&amp;""",L"""&amp;作業用リスト!E204&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A205" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B205,0)&amp;",0x"&amp;作業用リスト!C205&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D205&amp;""",L"""&amp;作業用リスト!E205&amp;"""},"</f>
-        <v>{0,0x0000,L"204:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B205,0)&amp;",0x"&amp;作業用リスト!C205&amp;",L"&amp;":"&amp;作業用リスト!D205&amp;""",L"""&amp;作業用リスト!E205&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A206" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B206,0)&amp;",0x"&amp;作業用リスト!C206&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D206&amp;""",L"""&amp;作業用リスト!E206&amp;"""},"</f>
-        <v>{0,0x0000,L"205:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B206,0)&amp;",0x"&amp;作業用リスト!C206&amp;",L"&amp;":"&amp;作業用リスト!D206&amp;""",L"""&amp;作業用リスト!E206&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A207" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B207,0)&amp;",0x"&amp;作業用リスト!C207&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D207&amp;""",L"""&amp;作業用リスト!E207&amp;"""},"</f>
-        <v>{0,0x0000,L"206:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B207,0)&amp;",0x"&amp;作業用リスト!C207&amp;",L"&amp;":"&amp;作業用リスト!D207&amp;""",L"""&amp;作業用リスト!E207&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A208" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B208,0)&amp;",0x"&amp;作業用リスト!C208&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D208&amp;""",L"""&amp;作業用リスト!E208&amp;"""},"</f>
-        <v>{0,0x0000,L"207:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B208,0)&amp;",0x"&amp;作業用リスト!C208&amp;",L"&amp;":"&amp;作業用リスト!D208&amp;""",L"""&amp;作業用リスト!E208&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A209" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B209,0)&amp;",0x"&amp;作業用リスト!C209&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D209&amp;""",L"""&amp;作業用リスト!E209&amp;"""},"</f>
-        <v>{0,0x0000,L"208:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B209,0)&amp;",0x"&amp;作業用リスト!C209&amp;",L"&amp;":"&amp;作業用リスト!D209&amp;""",L"""&amp;作業用リスト!E209&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A210" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B210,0)&amp;",0x"&amp;作業用リスト!C210&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D210&amp;""",L"""&amp;作業用リスト!E210&amp;"""},"</f>
-        <v>{0,0x0000,L"209:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B210,0)&amp;",0x"&amp;作業用リスト!C210&amp;",L"&amp;":"&amp;作業用リスト!D210&amp;""",L"""&amp;作業用リスト!E210&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A211" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B211,0)&amp;",0x"&amp;作業用リスト!C211&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D211&amp;""",L"""&amp;作業用リスト!E211&amp;"""},"</f>
-        <v>{0,0x0000,L"210:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B211,0)&amp;",0x"&amp;作業用リスト!C211&amp;",L"&amp;":"&amp;作業用リスト!D211&amp;""",L"""&amp;作業用リスト!E211&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A212" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B212,0)&amp;",0x"&amp;作業用リスト!C212&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D212&amp;""",L"""&amp;作業用リスト!E212&amp;"""},"</f>
-        <v>{1,0xF800,L"211:MC01　アンサーバック異常NO.1コンバータ主回路用MC",L"主回路用MCが投入指令後、"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B212,0)&amp;",0x"&amp;作業用リスト!C212&amp;",L"&amp;":"&amp;作業用リスト!D212&amp;""",L"""&amp;作業用リスト!E212&amp;"""},"</f>
+        <v>{1,0xF800,L:MC01　アンサーバック異常NO.1コンバータ主回路用MC",L"主回路用MCが投入指令後、"},</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A213" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B213,0)&amp;",0x"&amp;作業用リスト!C213&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D213&amp;""",L"""&amp;作業用リスト!E213&amp;"""},"</f>
-        <v>{1,0xF800,L"212:MC02　アンサーバック異常NO.2コンバータ主回路用MC",L"主回路用MCが投入指令後、"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B213,0)&amp;",0x"&amp;作業用リスト!C213&amp;",L"&amp;":"&amp;作業用リスト!D213&amp;""",L"""&amp;作業用リスト!E213&amp;"""},"</f>
+        <v>{1,0xF800,L:MC02　アンサーバック異常NO.2コンバータ主回路用MC",L"主回路用MCが投入指令後、"},</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A214" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B214,0)&amp;",0x"&amp;作業用リスト!C214&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D214&amp;""",L"""&amp;作業用リスト!E214&amp;"""},"</f>
-        <v>{1,0xF800,L"213:MC０３　アンサーバック異常ブレーキ主幹用MC",L"ブレーキ電源MCが投入指令後、"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B214,0)&amp;",0x"&amp;作業用リスト!C214&amp;",L"&amp;":"&amp;作業用リスト!D214&amp;""",L"""&amp;作業用リスト!E214&amp;"""},"</f>
+        <v>{1,0xF800,L:MC０３　アンサーバック異常ブレーキ主幹用MC",L"ブレーキ電源MCが投入指令後、"},</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A215" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B215,0)&amp;",0x"&amp;作業用リスト!C215&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D215&amp;""",L"""&amp;作業用リスト!E215&amp;"""},"</f>
-        <v>{0,0x0000,L"214:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B215,0)&amp;",0x"&amp;作業用リスト!C215&amp;",L"&amp;":"&amp;作業用リスト!D215&amp;""",L"""&amp;作業用リスト!E215&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A216" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B216,0)&amp;",0x"&amp;作業用リスト!C216&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D216&amp;""",L"""&amp;作業用リスト!E216&amp;"""},"</f>
-        <v>{2,0x4000,L"215:MC１１　アンサーバック異常NO.1巻上主幹用MC",L"NO.1巻上主幹MCが投入指令後、"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B216,0)&amp;",0x"&amp;作業用リスト!C216&amp;",L"&amp;":"&amp;作業用リスト!D216&amp;""",L"""&amp;作業用リスト!E216&amp;"""},"</f>
+        <v>{2,0x4000,L:MC１１　アンサーバック異常NO.1巻上主幹用MC",L"NO.1巻上主幹MCが投入指令後、"},</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A217" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B217,0)&amp;",0x"&amp;作業用リスト!C217&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D217&amp;""",L"""&amp;作業用リスト!E217&amp;"""},"</f>
-        <v>{2,0x4000,L"216:MC１２　アンサーバック異常NO.2巻上主幹用用MC",L"NO.2巻上主幹MCが投入指令後、"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B217,0)&amp;",0x"&amp;作業用リスト!C217&amp;",L"&amp;":"&amp;作業用リスト!D217&amp;""",L"""&amp;作業用リスト!E217&amp;"""},"</f>
+        <v>{2,0x4000,L:MC１２　アンサーバック異常NO.2巻上主幹用用MC",L"NO.2巻上主幹MCが投入指令後、"},</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A218" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B218,0)&amp;",0x"&amp;作業用リスト!C218&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D218&amp;""",L"""&amp;作業用リスト!E218&amp;"""},"</f>
-        <v>{0,0x0000,L"217:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B218,0)&amp;",0x"&amp;作業用リスト!C218&amp;",L"&amp;":"&amp;作業用リスト!D218&amp;""",L"""&amp;作業用リスト!E218&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A219" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B219,0)&amp;",0x"&amp;作業用リスト!C219&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D219&amp;""",L"""&amp;作業用リスト!E219&amp;"""},"</f>
-        <v>{0,0x0000,L"218:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B219,0)&amp;",0x"&amp;作業用リスト!C219&amp;",L"&amp;":"&amp;作業用リスト!D219&amp;""",L"""&amp;作業用リスト!E219&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A220" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B220,0)&amp;",0x"&amp;作業用リスト!C220&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D220&amp;""",L"""&amp;作業用リスト!E220&amp;"""},"</f>
-        <v>{1,0xF800,L"219:MC１０Bアンサーバック異常巻上ブレーキ用MC",L"巻上ブレーキMCが投入指令後、"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B220,0)&amp;",0x"&amp;作業用リスト!C220&amp;",L"&amp;":"&amp;作業用リスト!D220&amp;""",L"""&amp;作業用リスト!E220&amp;"""},"</f>
+        <v>{1,0xF800,L:MC１０Bアンサーバック異常巻上ブレーキ用MC",L"巻上ブレーキMCが投入指令後、"},</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A221" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B221,0)&amp;",0x"&amp;作業用リスト!C221&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D221&amp;""",L"""&amp;作業用リスト!E221&amp;"""},"</f>
-        <v>{0,0x0000,L"220:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B221,0)&amp;",0x"&amp;作業用リスト!C221&amp;",L"&amp;":"&amp;作業用リスト!D221&amp;""",L"""&amp;作業用リスト!E221&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A222" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B222,0)&amp;",0x"&amp;作業用リスト!C222&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D222&amp;""",L"""&amp;作業用リスト!E222&amp;"""},"</f>
-        <v>{0,0x0000,L"221:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B222,0)&amp;",0x"&amp;作業用リスト!C222&amp;",L"&amp;":"&amp;作業用リスト!D222&amp;""",L"""&amp;作業用リスト!E222&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A223" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B223,0)&amp;",0x"&amp;作業用リスト!C223&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D223&amp;""",L"""&amp;作業用リスト!E223&amp;"""},"</f>
-        <v>{0,0x0000,L"222:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B223,0)&amp;",0x"&amp;作業用リスト!C223&amp;",L"&amp;":"&amp;作業用リスト!D223&amp;""",L"""&amp;作業用リスト!E223&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A224" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B224,0)&amp;",0x"&amp;作業用リスト!C224&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D224&amp;""",L"""&amp;作業用リスト!E224&amp;"""},"</f>
-        <v>{0,0x0000,L"223:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B224,0)&amp;",0x"&amp;作業用リスト!C224&amp;",L"&amp;":"&amp;作業用リスト!D224&amp;""",L"""&amp;作業用リスト!E224&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A225" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B225,0)&amp;",0x"&amp;作業用リスト!C225&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D225&amp;""",L"""&amp;作業用リスト!E225&amp;"""},"</f>
-        <v>{0,0x0000,L"224:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B225,0)&amp;",0x"&amp;作業用リスト!C225&amp;",L"&amp;":"&amp;作業用リスト!D225&amp;""",L"""&amp;作業用リスト!E225&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A226" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B226,0)&amp;",0x"&amp;作業用リスト!C226&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D226&amp;""",L"""&amp;作業用リスト!E226&amp;"""},"</f>
-        <v>{0,0x0000,L"225:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B226,0)&amp;",0x"&amp;作業用リスト!C226&amp;",L"&amp;":"&amp;作業用リスト!D226&amp;""",L"""&amp;作業用リスト!E226&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A227" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B227,0)&amp;",0x"&amp;作業用リスト!C227&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D227&amp;""",L"""&amp;作業用リスト!E227&amp;"""},"</f>
-        <v>{0,0x0000,L"226:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B227,0)&amp;",0x"&amp;作業用リスト!C227&amp;",L"&amp;":"&amp;作業用リスト!D227&amp;""",L"""&amp;作業用リスト!E227&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A228" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B228,0)&amp;",0x"&amp;作業用リスト!C228&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D228&amp;""",L"""&amp;作業用リスト!E228&amp;"""},"</f>
-        <v>{1,0xF800,L"227:MC０９　アンサーバック異常初期充電用MC",L"初期充電抵抗器短絡用MCが投入指令後、"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B228,0)&amp;",0x"&amp;作業用リスト!C228&amp;",L"&amp;":"&amp;作業用リスト!D228&amp;""",L"""&amp;作業用リスト!E228&amp;"""},"</f>
+        <v>{1,0xF800,L:MC０９　アンサーバック異常初期充電用MC",L"初期充電抵抗器短絡用MCが投入指令後、"},</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A229" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B229,0)&amp;",0x"&amp;作業用リスト!C229&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D229&amp;""",L"""&amp;作業用リスト!E229&amp;"""},"</f>
-        <v>{0,0x0000,L"228:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B229,0)&amp;",0x"&amp;作業用リスト!C229&amp;",L"&amp;":"&amp;作業用リスト!D229&amp;""",L"""&amp;作業用リスト!E229&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A230" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B230,0)&amp;",0x"&amp;作業用リスト!C230&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D230&amp;""",L"""&amp;作業用リスト!E230&amp;"""},"</f>
-        <v>{0,0x0000,L"229:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B230,0)&amp;",0x"&amp;作業用リスト!C230&amp;",L"&amp;":"&amp;作業用リスト!D230&amp;""",L"""&amp;作業用リスト!E230&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A231" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B231,0)&amp;",0x"&amp;作業用リスト!C231&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D231&amp;""",L"""&amp;作業用リスト!E231&amp;"""},"</f>
-        <v>{0,0x0000,L"230:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B231,0)&amp;",0x"&amp;作業用リスト!C231&amp;",L"&amp;":"&amp;作業用リスト!D231&amp;""",L"""&amp;作業用リスト!E231&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A232" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B232,0)&amp;",0x"&amp;作業用リスト!C232&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D232&amp;""",L"""&amp;作業用リスト!E232&amp;"""},"</f>
-        <v>{2,0x0800,L"231:MC４０　アンサーバック異常走行主幹用MC",L"走行主幹MCが投入指令後、"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B232,0)&amp;",0x"&amp;作業用リスト!C232&amp;",L"&amp;":"&amp;作業用リスト!D232&amp;""",L"""&amp;作業用リスト!E232&amp;"""},"</f>
+        <v>{2,0x0800,L:MC４０　アンサーバック異常走行主幹用MC",L"走行主幹MCが投入指令後、"},</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A233" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B233,0)&amp;",0x"&amp;作業用リスト!C233&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D233&amp;""",L"""&amp;作業用リスト!E233&amp;"""},"</f>
-        <v>{1,0xF800,L"232:MC４０Bアンサーバック異常走行ブレーキ用MC",L"走行ブレーキMCが投入指令後、"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B233,0)&amp;",0x"&amp;作業用リスト!C233&amp;",L"&amp;":"&amp;作業用リスト!D233&amp;""",L"""&amp;作業用リスト!E233&amp;"""},"</f>
+        <v>{1,0xF800,L:MC４０Bアンサーバック異常走行ブレーキ用MC",L"走行ブレーキMCが投入指令後、"},</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A234" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B234,0)&amp;",0x"&amp;作業用リスト!C234&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D234&amp;""",L"""&amp;作業用リスト!E234&amp;"""},"</f>
-        <v>{2,0x1000,L"233:MC５０　アンサーバック異常旋回主幹用MC",L"旋回主幹MCが投入指令後、"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B234,0)&amp;",0x"&amp;作業用リスト!C234&amp;",L"&amp;":"&amp;作業用リスト!D234&amp;""",L"""&amp;作業用リスト!E234&amp;"""},"</f>
+        <v>{2,0x1000,L:MC５０　アンサーバック異常旋回主幹用MC",L"旋回主幹MCが投入指令後、"},</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A235" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B235,0)&amp;",0x"&amp;作業用リスト!C235&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D235&amp;""",L"""&amp;作業用リスト!E235&amp;"""},"</f>
-        <v>{2,0x2000,L"234:MC６０　アンサーバック異常引込主幹用MC",L"引込主幹MCが投入指令後、"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B235,0)&amp;",0x"&amp;作業用リスト!C235&amp;",L"&amp;":"&amp;作業用リスト!D235&amp;""",L"""&amp;作業用リスト!E235&amp;"""},"</f>
+        <v>{2,0x2000,L:MC６０　アンサーバック異常引込主幹用MC",L"引込主幹MCが投入指令後、"},</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A236" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B236,0)&amp;",0x"&amp;作業用リスト!C236&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D236&amp;""",L"""&amp;作業用リスト!E236&amp;"""},"</f>
-        <v>{0,0x0000,L"235:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B236,0)&amp;",0x"&amp;作業用リスト!C236&amp;",L"&amp;":"&amp;作業用リスト!D236&amp;""",L"""&amp;作業用リスト!E236&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A237" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B237,0)&amp;",0x"&amp;作業用リスト!C237&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D237&amp;""",L"""&amp;作業用リスト!E237&amp;"""},"</f>
-        <v>{1,0xF800,L"236:MC６０Bアンサーバック異常引込ブレーキ用MC",L"引込ブレーキMCが投入指令後、"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B237,0)&amp;",0x"&amp;作業用リスト!C237&amp;",L"&amp;":"&amp;作業用リスト!D237&amp;""",L"""&amp;作業用リスト!E237&amp;"""},"</f>
+        <v>{1,0xF800,L:MC６０Bアンサーバック異常引込ブレーキ用MC",L"引込ブレーキMCが投入指令後、"},</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A238" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B238,0)&amp;",0x"&amp;作業用リスト!C238&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D238&amp;""",L"""&amp;作業用リスト!E238&amp;"""},"</f>
-        <v>{0,0x0000,L"237:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B238,0)&amp;",0x"&amp;作業用リスト!C238&amp;",L"&amp;":"&amp;作業用リスト!D238&amp;""",L"""&amp;作業用リスト!E238&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A239" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B239,0)&amp;",0x"&amp;作業用リスト!C239&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D239&amp;""",L"""&amp;作業用リスト!E239&amp;"""},"</f>
-        <v>{0,0x0000,L"238:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B239,0)&amp;",0x"&amp;作業用リスト!C239&amp;",L"&amp;":"&amp;作業用リスト!D239&amp;""",L"""&amp;作業用リスト!E239&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A240" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B240,0)&amp;",0x"&amp;作業用リスト!C240&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D240&amp;""",L"""&amp;作業用リスト!E240&amp;"""},"</f>
-        <v>{0,0x0000,L"239:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B240,0)&amp;",0x"&amp;作業用リスト!C240&amp;",L"&amp;":"&amp;作業用リスト!D240&amp;""",L"""&amp;作業用リスト!E240&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A241" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B241,0)&amp;",0x"&amp;作業用リスト!C241&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D241&amp;""",L"""&amp;作業用リスト!E241&amp;"""},"</f>
-        <v>{3,0x0008,L"240:MC９０　アンサーバック異常ケーブルリール用ＭＣ",L"ケーブルリール用電動機MCが投入指令後、"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B241,0)&amp;",0x"&amp;作業用リスト!C241&amp;",L"&amp;":"&amp;作業用リスト!D241&amp;""",L"""&amp;作業用リスト!E241&amp;"""},"</f>
+        <v>{3,0x0008,L:MC９０　アンサーバック異常ケーブルリール用ＭＣ",L"ケーブルリール用電動機MCが投入指令後、"},</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A242" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B242,0)&amp;",0x"&amp;作業用リスト!C242&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D242&amp;""",L"""&amp;作業用リスト!E242&amp;"""},"</f>
-        <v>{0,0x0000,L"241:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B242,0)&amp;",0x"&amp;作業用リスト!C242&amp;",L"&amp;":"&amp;作業用リスト!D242&amp;""",L"""&amp;作業用リスト!E242&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A243" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B243,0)&amp;",0x"&amp;作業用リスト!C243&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D243&amp;""",L"""&amp;作業用リスト!E243&amp;"""},"</f>
-        <v>{0,0x0000,L"242:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B243,0)&amp;",0x"&amp;作業用リスト!C243&amp;",L"&amp;":"&amp;作業用リスト!D243&amp;""",L"""&amp;作業用リスト!E243&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A244" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B244,0)&amp;",0x"&amp;作業用リスト!C244&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D244&amp;""",L"""&amp;作業用リスト!E244&amp;"""},"</f>
-        <v>{0,0x0000,L"243:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B244,0)&amp;",0x"&amp;作業用リスト!C244&amp;",L"&amp;":"&amp;作業用リスト!D244&amp;""",L"""&amp;作業用リスト!E244&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A245" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B245,0)&amp;",0x"&amp;作業用リスト!C245&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D245&amp;""",L"""&amp;作業用リスト!E245&amp;"""},"</f>
-        <v>{0,0x0000,L"244:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B245,0)&amp;",0x"&amp;作業用リスト!C245&amp;",L"&amp;":"&amp;作業用リスト!D245&amp;""",L"""&amp;作業用リスト!E245&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A246" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B246,0)&amp;",0x"&amp;作業用リスト!C246&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D246&amp;""",L"""&amp;作業用リスト!E246&amp;"""},"</f>
-        <v>{0,0x0000,L"245:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B246,0)&amp;",0x"&amp;作業用リスト!C246&amp;",L"&amp;":"&amp;作業用リスト!D246&amp;""",L"""&amp;作業用リスト!E246&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A247" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B247,0)&amp;",0x"&amp;作業用リスト!C247&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D247&amp;""",L"""&amp;作業用リスト!E247&amp;"""},"</f>
-        <v>{0,0x0000,L"246:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B247,0)&amp;",0x"&amp;作業用リスト!C247&amp;",L"&amp;":"&amp;作業用リスト!D247&amp;""",L"""&amp;作業用リスト!E247&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A248" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B248,0)&amp;",0x"&amp;作業用リスト!C248&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D248&amp;""",L"""&amp;作業用リスト!E248&amp;"""},"</f>
-        <v>{0,0x0000,L"247:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B248,0)&amp;",0x"&amp;作業用リスト!C248&amp;",L"&amp;":"&amp;作業用リスト!D248&amp;""",L"""&amp;作業用リスト!E248&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A249" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B249,0)&amp;",0x"&amp;作業用リスト!C249&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D249&amp;""",L"""&amp;作業用リスト!E249&amp;"""},"</f>
-        <v>{0,0x0000,L"248:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B249,0)&amp;",0x"&amp;作業用リスト!C249&amp;",L"&amp;":"&amp;作業用リスト!D249&amp;""",L"""&amp;作業用リスト!E249&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A250" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B250,0)&amp;",0x"&amp;作業用リスト!C250&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D250&amp;""",L"""&amp;作業用リスト!E250&amp;"""},"</f>
-        <v>{0,0x0000,L"249:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B250,0)&amp;",0x"&amp;作業用リスト!C250&amp;",L"&amp;":"&amp;作業用リスト!D250&amp;""",L"""&amp;作業用リスト!E250&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A251" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B251,0)&amp;",0x"&amp;作業用リスト!C251&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D251&amp;""",L"""&amp;作業用リスト!E251&amp;"""},"</f>
-        <v>{0,0x0000,L"250:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B251,0)&amp;",0x"&amp;作業用リスト!C251&amp;",L"&amp;":"&amp;作業用リスト!D251&amp;""",L"""&amp;作業用リスト!E251&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A252" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B252,0)&amp;",0x"&amp;作業用リスト!C252&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D252&amp;""",L"""&amp;作業用リスト!E252&amp;"""},"</f>
-        <v>{4,0x0000,L"251:巻上インバータ冷却ファン停止",L"インバータ内冷却ファンが停止"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B252,0)&amp;",0x"&amp;作業用リスト!C252&amp;",L"&amp;":"&amp;作業用リスト!D252&amp;""",L"""&amp;作業用リスト!E252&amp;"""},"</f>
+        <v>{4,0x0000,L:巻上インバータ冷却ファン停止",L"インバータ内冷却ファンが停止"},</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A253" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B253,0)&amp;",0x"&amp;作業用リスト!C253&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D253&amp;""",L"""&amp;作業用リスト!E253&amp;"""},"</f>
-        <v>{0,0x0000,L"252:",L""},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B253,0)&amp;",0x"&amp;作業用リスト!C253&amp;",L"&amp;":"&amp;作業用リスト!D253&amp;""",L"""&amp;作業用リスト!E253&amp;"""},"</f>
+        <v>{0,0x0000,L:",L""},</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A254" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B254,0)&amp;",0x"&amp;作業用リスト!C254&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D254&amp;""",L"""&amp;作業用リスト!E254&amp;"""},"</f>
-        <v>{4,0x0000,L"253:引込インバータ冷却ファン停止",L"インバータ内冷却ファンが停止"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B254,0)&amp;",0x"&amp;作業用リスト!C254&amp;",L"&amp;":"&amp;作業用リスト!D254&amp;""",L"""&amp;作業用リスト!E254&amp;"""},"</f>
+        <v>{4,0x0000,L:引込インバータ冷却ファン停止",L"インバータ内冷却ファンが停止"},</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A255" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B255,0)&amp;",0x"&amp;作業用リスト!C255&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D255&amp;""",L"""&amp;作業用リスト!E255&amp;"""},"</f>
-        <v>{4,0x0000,L"254:旋回インバータ冷却ファン停止",L"インバータ内冷却ファンが停止"},</v>
+        <f>"{" &amp; TEXT(作業用リスト!B255,0)&amp;",0x"&amp;作業用リスト!C255&amp;",L"&amp;":"&amp;作業用リスト!D255&amp;""",L"""&amp;作業用リスト!E255&amp;"""},"</f>
+        <v>{4,0x0000,L:旋回インバータ冷却ファン停止",L"インバータ内冷却ファンが停止"},</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A256" t="str">
-        <f>"{" &amp; TEXT(作業用リスト!B256,0)&amp;",0x"&amp;作業用リスト!C256&amp;",L"""&amp;TEXT(ROW()-1,"000")&amp;":"&amp;作業用リスト!D256&amp;""",L"""&amp;作業用リスト!E256&amp;"""},"</f>
-        <v>{4,0x0000,L"255:走行インバータ冷却ファン停止",L"インバータ内冷却ファンが停止"},</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A257" t="s">
-        <v>288</v>
+        <f>"{" &amp; TEXT(作業用リスト!B256,0)&amp;",0x"&amp;作業用リスト!C256&amp;",L"&amp;":"&amp;作業用リスト!D256&amp;""",L"""&amp;作業用リスト!E256&amp;"""},"</f>
+        <v>{4,0x0000,L:走行インバータ冷却ファン停止",L"インバータ内冷却ファンが停止"},</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -34997,7 +34985,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B1" t="str">
         <f>"{" &amp; "0x" &amp; 作業用リスト!AC2 &amp; ",0x" &amp; 作業用リスト!AC18 &amp;  ",0x" &amp; 作業用リスト!AC34 &amp; ",0x" &amp; 作業用リスト!AC50 &amp; ",0x" &amp; 作業用リスト!AC66 &amp; ",0x" &amp; 作業用リスト!AC82 &amp; ",0x" &amp; 作業用リスト!AC98 &amp; ",0x" &amp; 作業用リスト!AC114 &amp; ",0x" &amp; 作業用リスト!AC130 &amp; ",0x" &amp; 作業用リスト!AC146 &amp; ",0x" &amp; 作業用リスト!AC162 &amp; ",0x" &amp; 作業用リスト!AC178 &amp; ",0x" &amp; 作業用リスト!AC194 &amp; ",0x" &amp; 作業用リスト!AC210  &amp; ",0x" &amp; 作業用リスト!AC226 &amp; ",0x" &amp; 作業用リスト!AC242&amp;  ",0x" &amp;作業用リスト!AC258 &amp; ",0x" &amp; 作業用リスト!AC274 &amp; "},"</f>
@@ -35006,7 +34994,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B2" t="str">
         <f>"{" &amp; "0x" &amp; 作業用リスト!AD2 &amp; ",0x" &amp; 作業用リスト!AD18 &amp;  ",0x" &amp; 作業用リスト!AD34 &amp; ",0x" &amp; 作業用リスト!AD50 &amp; ",0x" &amp; 作業用リスト!AD66 &amp; ",0x" &amp; 作業用リスト!AD82 &amp; ",0x" &amp; 作業用リスト!AD98 &amp; ",0x" &amp; 作業用リスト!AD114 &amp; ",0x" &amp; 作業用リスト!AD130 &amp; ",0x" &amp; 作業用リスト!AD146 &amp; ",0x" &amp; 作業用リスト!AD162 &amp; ",0x" &amp; 作業用リスト!AD178 &amp; ",0x" &amp; 作業用リスト!AD194 &amp; ",0x" &amp; 作業用リスト!AD210  &amp; ",0x" &amp; 作業用リスト!AD226 &amp; ",0x" &amp; 作業用リスト!AD242&amp;  ",0x" &amp;作業用リスト!AD258 &amp; ",0x" &amp; 作業用リスト!AD274 &amp; "},"</f>
@@ -35015,7 +35003,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B3" t="str">
         <f>"{" &amp; "0x" &amp; 作業用リスト!AE2 &amp; ",0x" &amp; 作業用リスト!AE18 &amp;  ",0x" &amp; 作業用リスト!AE34 &amp; ",0x" &amp; 作業用リスト!AE50 &amp; ",0x" &amp; 作業用リスト!AE66 &amp; ",0x" &amp; 作業用リスト!AE82 &amp; ",0x" &amp; 作業用リスト!AE98 &amp; ",0x" &amp; 作業用リスト!AE114 &amp; ",0x" &amp; 作業用リスト!AE130 &amp; ",0x" &amp; 作業用リスト!AE146 &amp; ",0x" &amp; 作業用リスト!AE162 &amp; ",0x" &amp; 作業用リスト!AE178 &amp; ",0x" &amp; 作業用リスト!AE194 &amp; ",0x" &amp; 作業用リスト!AE210  &amp; ",0x" &amp; 作業用リスト!AE226 &amp; ",0x" &amp; 作業用リスト!AE242&amp;  ",0x" &amp;作業用リスト!AE258 &amp; ",0x" &amp; 作業用リスト!AE274 &amp; "},"</f>
@@ -35024,7 +35012,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B4" t="str">
         <f>"{" &amp; "0x" &amp; 作業用リスト!AF2 &amp; ",0x" &amp; 作業用リスト!AF18 &amp;  ",0x" &amp; 作業用リスト!AF34 &amp; ",0x" &amp; 作業用リスト!AF50 &amp; ",0x" &amp; 作業用リスト!AF66 &amp; ",0x" &amp; 作業用リスト!AF82 &amp; ",0x" &amp; 作業用リスト!AF98 &amp; ",0x" &amp; 作業用リスト!AF114 &amp; ",0x" &amp; 作業用リスト!AF130 &amp; ",0x" &amp; 作業用リスト!AF146 &amp; ",0x" &amp; 作業用リスト!AF162 &amp; ",0x" &amp; 作業用リスト!AF178 &amp; ",0x" &amp; 作業用リスト!AF194 &amp; ",0x" &amp; 作業用リスト!AF210  &amp; ",0x" &amp; 作業用リスト!AF226 &amp; ",0x" &amp; 作業用リスト!AF242&amp;  ",0x" &amp;作業用リスト!AF258 &amp; ",0x" &amp; 作業用リスト!AF274 &amp; "},"</f>
@@ -35033,7 +35021,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B5" t="str">
         <f>"{" &amp; "0x" &amp; 作業用リスト!AG2 &amp; ",0x" &amp; 作業用リスト!AG18 &amp;  ",0x" &amp; 作業用リスト!AG34 &amp; ",0x" &amp; 作業用リスト!AG50 &amp; ",0x" &amp; 作業用リスト!AG66 &amp; ",0x" &amp; 作業用リスト!AG82 &amp; ",0x" &amp; 作業用リスト!AG98 &amp; ",0x" &amp; 作業用リスト!AG114 &amp; ",0x" &amp; 作業用リスト!AG130 &amp; ",0x" &amp; 作業用リスト!AG146 &amp; ",0x" &amp; 作業用リスト!AG162 &amp; ",0x" &amp; 作業用リスト!AG178 &amp; ",0x" &amp; 作業用リスト!AG194 &amp; ",0x" &amp; 作業用リスト!AG210  &amp; ",0x" &amp; 作業用リスト!AG226 &amp; ",0x" &amp; 作業用リスト!AG242&amp;  ",0x" &amp;作業用リスト!AG258 &amp; ",0x" &amp; 作業用リスト!AG274 &amp; "},"</f>
@@ -35042,7 +35030,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B6" t="str">
         <f>"{" &amp; "0x" &amp; 作業用リスト!AH2 &amp; ",0x" &amp; 作業用リスト!AH18 &amp;  ",0x" &amp; 作業用リスト!AH34 &amp; ",0x" &amp; 作業用リスト!AH50 &amp; ",0x" &amp; 作業用リスト!AH66 &amp; ",0x" &amp; 作業用リスト!AH82 &amp; ",0x" &amp; 作業用リスト!AH98 &amp; ",0x" &amp; 作業用リスト!AH114 &amp; ",0x" &amp; 作業用リスト!AH130 &amp; ",0x" &amp; 作業用リスト!AH146 &amp; ",0x" &amp; 作業用リスト!AH162 &amp; ",0x" &amp; 作業用リスト!AH178 &amp; ",0x" &amp; 作業用リスト!AH194 &amp; ",0x" &amp; 作業用リスト!AH210  &amp; ",0x" &amp; 作業用リスト!AH226 &amp; ",0x" &amp; 作業用リスト!AH242&amp;  ",0x" &amp;作業用リスト!AH258 &amp; ",0x" &amp; 作業用リスト!AH274 &amp; "},"</f>
